--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Gunapar_khal/Gunapara_khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Gunapar_khal/Gunapara_khal_Dataprep_Input.xlsx
@@ -1255,29 +1255,8 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1308,6 +1287,27 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="20" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1655,11 +1655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217777280"/>
-        <c:axId val="217778816"/>
+        <c:axId val="225903744"/>
+        <c:axId val="225905280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217777280"/>
+        <c:axId val="225903744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1705,12 +1705,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217778816"/>
+        <c:crossAx val="225905280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217778816"/>
+        <c:axId val="225905280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217777280"/>
+        <c:crossAx val="225903744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2075,11 +2075,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237763200"/>
-        <c:axId val="237773184"/>
+        <c:axId val="246078080"/>
+        <c:axId val="246092160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237763200"/>
+        <c:axId val="246078080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2125,12 +2125,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237773184"/>
+        <c:crossAx val="246092160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237773184"/>
+        <c:axId val="246092160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2175,7 +2175,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237763200"/>
+        <c:crossAx val="246078080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2501,11 +2501,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237798528"/>
-        <c:axId val="237800064"/>
+        <c:axId val="246113408"/>
+        <c:axId val="246114944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237798528"/>
+        <c:axId val="246113408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2551,12 +2551,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237800064"/>
+        <c:crossAx val="246114944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237800064"/>
+        <c:axId val="246114944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +2601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237798528"/>
+        <c:crossAx val="246113408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2951,11 +2951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237832064"/>
-        <c:axId val="237833600"/>
+        <c:axId val="246146944"/>
+        <c:axId val="246148480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237832064"/>
+        <c:axId val="246146944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3001,12 +3001,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237833600"/>
+        <c:crossAx val="246148480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237833600"/>
+        <c:axId val="246148480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237832064"/>
+        <c:crossAx val="246146944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3353,11 +3353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237873024"/>
-        <c:axId val="237874560"/>
+        <c:axId val="246187904"/>
+        <c:axId val="246189440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237873024"/>
+        <c:axId val="246187904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3403,12 +3403,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237874560"/>
+        <c:crossAx val="246189440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237874560"/>
+        <c:axId val="246189440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3453,7 +3453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237873024"/>
+        <c:crossAx val="246187904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3743,11 +3743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238506368"/>
-        <c:axId val="238507904"/>
+        <c:axId val="246808960"/>
+        <c:axId val="246810496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238506368"/>
+        <c:axId val="246808960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3793,12 +3793,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238507904"/>
+        <c:crossAx val="246810496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238507904"/>
+        <c:axId val="246810496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,7 +3843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238506368"/>
+        <c:crossAx val="246808960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4121,11 +4121,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238533248"/>
-        <c:axId val="238543232"/>
+        <c:axId val="246852224"/>
+        <c:axId val="246854016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238533248"/>
+        <c:axId val="246852224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4171,12 +4171,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238543232"/>
+        <c:crossAx val="246854016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238543232"/>
+        <c:axId val="246854016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4221,7 +4221,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238533248"/>
+        <c:crossAx val="246852224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4499,11 +4499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238580096"/>
-        <c:axId val="238581632"/>
+        <c:axId val="246964608"/>
+        <c:axId val="246966144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238580096"/>
+        <c:axId val="246964608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4549,12 +4549,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238581632"/>
+        <c:crossAx val="246966144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238581632"/>
+        <c:axId val="246966144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4599,7 +4599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238580096"/>
+        <c:crossAx val="246964608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4895,11 +4895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238602880"/>
-        <c:axId val="238612864"/>
+        <c:axId val="246991488"/>
+        <c:axId val="246874496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238602880"/>
+        <c:axId val="246991488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4945,12 +4945,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238612864"/>
+        <c:crossAx val="246874496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238612864"/>
+        <c:axId val="246874496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4995,7 +4995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238602880"/>
+        <c:crossAx val="246991488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5291,11 +5291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238659072"/>
-        <c:axId val="238660608"/>
+        <c:axId val="246916608"/>
+        <c:axId val="246918144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238659072"/>
+        <c:axId val="246916608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5341,12 +5341,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238660608"/>
+        <c:crossAx val="246918144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238660608"/>
+        <c:axId val="246918144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5391,7 +5391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238659072"/>
+        <c:crossAx val="246916608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5693,11 +5693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238297088"/>
-        <c:axId val="238298624"/>
+        <c:axId val="246611968"/>
+        <c:axId val="246613504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238297088"/>
+        <c:axId val="246611968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5743,12 +5743,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238298624"/>
+        <c:crossAx val="246613504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238298624"/>
+        <c:axId val="246613504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5793,7 +5793,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238297088"/>
+        <c:crossAx val="246611968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6107,11 +6107,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217808256"/>
-        <c:axId val="217826432"/>
+        <c:axId val="225922432"/>
+        <c:axId val="225932416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217808256"/>
+        <c:axId val="225922432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6157,12 +6157,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217826432"/>
+        <c:crossAx val="225932416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217826432"/>
+        <c:axId val="225932416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6207,7 +6207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217808256"/>
+        <c:crossAx val="225922432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6533,11 +6533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238328064"/>
-        <c:axId val="238350336"/>
+        <c:axId val="246634752"/>
+        <c:axId val="246665216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238328064"/>
+        <c:axId val="246634752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6583,12 +6583,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238350336"/>
+        <c:crossAx val="246665216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238350336"/>
+        <c:axId val="246665216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6633,7 +6633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238328064"/>
+        <c:crossAx val="246634752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6959,11 +6959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238367872"/>
-        <c:axId val="238369408"/>
+        <c:axId val="246760576"/>
+        <c:axId val="246762112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238367872"/>
+        <c:axId val="246760576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7009,12 +7009,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238369408"/>
+        <c:crossAx val="246762112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238369408"/>
+        <c:axId val="246762112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7059,7 +7059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238367872"/>
+        <c:crossAx val="246760576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7397,11 +7397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238394752"/>
-        <c:axId val="238412928"/>
+        <c:axId val="246779264"/>
+        <c:axId val="246793344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238394752"/>
+        <c:axId val="246779264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7447,12 +7447,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238412928"/>
+        <c:crossAx val="246793344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238412928"/>
+        <c:axId val="246793344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7497,7 +7497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238394752"/>
+        <c:crossAx val="246779264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7847,11 +7847,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238962560"/>
-        <c:axId val="238964096"/>
+        <c:axId val="247338880"/>
+        <c:axId val="247340416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238962560"/>
+        <c:axId val="247338880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7897,12 +7897,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238964096"/>
+        <c:crossAx val="247340416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238964096"/>
+        <c:axId val="247340416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7947,7 +7947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238962560"/>
+        <c:crossAx val="247338880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8237,11 +8237,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239006080"/>
-        <c:axId val="239007616"/>
+        <c:axId val="247390592"/>
+        <c:axId val="247392128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239006080"/>
+        <c:axId val="247390592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8287,12 +8287,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239007616"/>
+        <c:crossAx val="247392128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239007616"/>
+        <c:axId val="247392128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8337,7 +8337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239006080"/>
+        <c:crossAx val="247390592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8723,11 +8723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239040768"/>
-        <c:axId val="239054848"/>
+        <c:axId val="247294208"/>
+        <c:axId val="247304192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239040768"/>
+        <c:axId val="247294208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8773,12 +8773,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239054848"/>
+        <c:crossAx val="247304192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239054848"/>
+        <c:axId val="247304192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8823,7 +8823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239040768"/>
+        <c:crossAx val="247294208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9155,11 +9155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237965696"/>
-        <c:axId val="237967232"/>
+        <c:axId val="244806016"/>
+        <c:axId val="244807552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237965696"/>
+        <c:axId val="244806016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9205,12 +9205,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237967232"/>
+        <c:crossAx val="244807552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237967232"/>
+        <c:axId val="244807552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9255,7 +9255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237965696"/>
+        <c:crossAx val="244806016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9557,11 +9557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237994368"/>
-        <c:axId val="237995904"/>
+        <c:axId val="246309248"/>
+        <c:axId val="246310784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237994368"/>
+        <c:axId val="246309248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9607,12 +9607,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237995904"/>
+        <c:crossAx val="246310784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237995904"/>
+        <c:axId val="246310784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9657,7 +9657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237994368"/>
+        <c:crossAx val="246309248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9953,11 +9953,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238039808"/>
-        <c:axId val="238041344"/>
+        <c:axId val="246358784"/>
+        <c:axId val="246360320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238039808"/>
+        <c:axId val="246358784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10003,12 +10003,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238041344"/>
+        <c:crossAx val="246360320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238041344"/>
+        <c:axId val="246360320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10053,7 +10053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238039808"/>
+        <c:crossAx val="246358784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10355,11 +10355,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238061056"/>
-        <c:axId val="238062592"/>
+        <c:axId val="246389760"/>
+        <c:axId val="246399744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238061056"/>
+        <c:axId val="246389760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10405,12 +10405,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238062592"/>
+        <c:crossAx val="246399744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238062592"/>
+        <c:axId val="246399744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10455,7 +10455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238061056"/>
+        <c:crossAx val="246389760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10751,11 +10751,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238095744"/>
-        <c:axId val="238105728"/>
+        <c:axId val="246420992"/>
+        <c:axId val="246422528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238095744"/>
+        <c:axId val="246420992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10801,12 +10801,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238105728"/>
+        <c:crossAx val="246422528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238105728"/>
+        <c:axId val="246422528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10851,7 +10851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238095744"/>
+        <c:crossAx val="246420992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11159,11 +11159,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238151552"/>
-        <c:axId val="238153088"/>
+        <c:axId val="246464512"/>
+        <c:axId val="246466048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238151552"/>
+        <c:axId val="246464512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11209,12 +11209,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238153088"/>
+        <c:crossAx val="246466048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238153088"/>
+        <c:axId val="246466048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11259,7 +11259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238151552"/>
+        <c:crossAx val="246464512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11579,11 +11579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="237736320"/>
-        <c:axId val="237737856"/>
+        <c:axId val="246043008"/>
+        <c:axId val="246044544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="237736320"/>
+        <c:axId val="246043008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11629,12 +11629,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237737856"/>
+        <c:crossAx val="246044544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="237737856"/>
+        <c:axId val="246044544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11679,7 +11679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="237736320"/>
+        <c:crossAx val="246043008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11753,7 +11753,7 @@
         <xdr:cNvPr id="48" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11791,7 +11791,7 @@
         <xdr:cNvPr id="49" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11829,7 +11829,7 @@
         <xdr:cNvPr id="50" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11867,7 +11867,7 @@
         <xdr:cNvPr id="51" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11905,7 +11905,7 @@
         <xdr:cNvPr id="52" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11943,7 +11943,7 @@
         <xdr:cNvPr id="53" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11981,7 +11981,7 @@
         <xdr:cNvPr id="54" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12019,7 +12019,7 @@
         <xdr:cNvPr id="55" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12057,7 +12057,7 @@
         <xdr:cNvPr id="56" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12095,7 +12095,7 @@
         <xdr:cNvPr id="57" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12133,7 +12133,7 @@
         <xdr:cNvPr id="58" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12171,7 +12171,7 @@
         <xdr:cNvPr id="59" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12209,7 +12209,7 @@
         <xdr:cNvPr id="60" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12247,7 +12247,7 @@
         <xdr:cNvPr id="61" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12285,7 +12285,7 @@
         <xdr:cNvPr id="62" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12323,7 +12323,7 @@
         <xdr:cNvPr id="63" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12361,7 +12361,7 @@
         <xdr:cNvPr id="64" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12399,7 +12399,7 @@
         <xdr:cNvPr id="65" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12437,7 +12437,7 @@
         <xdr:cNvPr id="66" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12475,7 +12475,7 @@
         <xdr:cNvPr id="67" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12513,7 +12513,7 @@
         <xdr:cNvPr id="68" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12551,7 +12551,7 @@
         <xdr:cNvPr id="69" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12589,7 +12589,7 @@
         <xdr:cNvPr id="70" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12627,7 +12627,7 @@
         <xdr:cNvPr id="71" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12665,7 +12665,7 @@
         <xdr:cNvPr id="72" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17417,7 +17417,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17831,21 +17831,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
@@ -17888,10 +17888,10 @@
         <v>71</v>
       </c>
       <c r="G3" s="23"/>
-      <c r="H3" s="92">
+      <c r="H3" s="106">
         <v>0</v>
       </c>
-      <c r="I3" s="92"/>
+      <c r="I3" s="106"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
@@ -17938,21 +17938,21 @@
       <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="I5" s="93" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="I5" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
@@ -18836,10 +18836,10 @@
         <f>SUM(G7:G27)</f>
         <v>17.738499999999998</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="95"/>
+      <c r="I28" s="107"/>
       <c r="J28" s="39">
         <f>G28</f>
         <v>17.738499999999998</v>
@@ -18893,11 +18893,11 @@
       <c r="L30" s="42"/>
       <c r="M30" s="42"/>
       <c r="N30" s="24"/>
-      <c r="O30" s="97" t="s">
+      <c r="O30" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="99"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="105"/>
       <c r="R30" s="24"/>
     </row>
     <row r="31" spans="2:19" ht="15" x14ac:dyDescent="0.2">
@@ -18955,8 +18955,8 @@
       <c r="E33" s="42"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
       <c r="J33" s="39"/>
       <c r="K33" s="39"/>
       <c r="L33" s="41"/>
@@ -18972,8 +18972,8 @@
       <c r="E34" s="42"/>
       <c r="F34" s="41"/>
       <c r="G34" s="39"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
       <c r="J34" s="39"/>
       <c r="K34" s="39"/>
       <c r="L34" s="41"/>
@@ -18991,10 +18991,10 @@
         <v>71</v>
       </c>
       <c r="G35" s="23"/>
-      <c r="H35" s="92">
+      <c r="H35" s="106">
         <v>0.1</v>
       </c>
-      <c r="I35" s="92"/>
+      <c r="I35" s="106"/>
       <c r="J35" s="42"/>
       <c r="K35" s="42"/>
       <c r="L35" s="42"/>
@@ -19004,24 +19004,24 @@
       <c r="P35" s="24"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
       <c r="H36" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="93" t="s">
+      <c r="I36" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
@@ -19870,10 +19870,10 @@
       <c r="E65" s="42"/>
       <c r="F65" s="41"/>
       <c r="G65" s="39"/>
-      <c r="H65" s="95" t="s">
+      <c r="H65" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I65" s="95"/>
+      <c r="I65" s="107"/>
       <c r="J65" s="39">
         <f>G59</f>
         <v>68.039999999999992</v>
@@ -19902,10 +19902,10 @@
         <v>71</v>
       </c>
       <c r="G66" s="23"/>
-      <c r="H66" s="92">
+      <c r="H66" s="106">
         <v>0.2</v>
       </c>
-      <c r="I66" s="92"/>
+      <c r="I66" s="106"/>
       <c r="J66" s="42"/>
       <c r="K66" s="42"/>
       <c r="L66" s="42"/>
@@ -19918,24 +19918,24 @@
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="93" t="s">
+      <c r="B67" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="93"/>
-      <c r="D67" s="93"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="93"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
       <c r="H67" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="93" t="s">
+      <c r="I67" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J67" s="93"/>
-      <c r="K67" s="93"/>
-      <c r="L67" s="93"/>
-      <c r="M67" s="93"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92"/>
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
       <c r="P67" s="25"/>
@@ -20762,10 +20762,10 @@
       <c r="E94" s="42"/>
       <c r="F94" s="41"/>
       <c r="G94" s="39"/>
-      <c r="H94" s="95" t="s">
+      <c r="H94" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I94" s="95"/>
+      <c r="I94" s="107"/>
       <c r="J94" s="39">
         <f>G93</f>
         <v>41.518999999999998</v>
@@ -20819,10 +20819,10 @@
         <v>71</v>
       </c>
       <c r="G96" s="23"/>
-      <c r="H96" s="92">
+      <c r="H96" s="106">
         <v>0.3</v>
       </c>
-      <c r="I96" s="92"/>
+      <c r="I96" s="106"/>
       <c r="J96" s="42"/>
       <c r="K96" s="42"/>
       <c r="L96" s="42"/>
@@ -20835,24 +20835,24 @@
       </c>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="93" t="s">
+      <c r="B97" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C97" s="93"/>
-      <c r="D97" s="93"/>
-      <c r="E97" s="93"/>
-      <c r="F97" s="93"/>
-      <c r="G97" s="93"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
       <c r="H97" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I97" s="93" t="s">
+      <c r="I97" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J97" s="93"/>
-      <c r="K97" s="93"/>
-      <c r="L97" s="93"/>
-      <c r="M97" s="93"/>
+      <c r="J97" s="92"/>
+      <c r="K97" s="92"/>
+      <c r="L97" s="92"/>
+      <c r="M97" s="92"/>
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
@@ -21571,10 +21571,10 @@
       <c r="E121" s="42"/>
       <c r="F121" s="41"/>
       <c r="G121" s="39"/>
-      <c r="H121" s="95" t="s">
+      <c r="H121" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I121" s="95"/>
+      <c r="I121" s="107"/>
       <c r="J121" s="39">
         <f>G120</f>
         <v>59.981999999999999</v>
@@ -21622,10 +21622,10 @@
         <v>71</v>
       </c>
       <c r="G123" s="23"/>
-      <c r="H123" s="92">
+      <c r="H123" s="106">
         <v>0.35499999999999998</v>
       </c>
-      <c r="I123" s="92"/>
+      <c r="I123" s="106"/>
       <c r="J123" s="42"/>
       <c r="K123" s="42"/>
       <c r="L123" s="42"/>
@@ -21635,24 +21635,24 @@
       <c r="P123" s="24"/>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="93" t="s">
+      <c r="B124" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C124" s="93"/>
-      <c r="D124" s="93"/>
-      <c r="E124" s="93"/>
-      <c r="F124" s="93"/>
-      <c r="G124" s="93"/>
+      <c r="C124" s="92"/>
+      <c r="D124" s="92"/>
+      <c r="E124" s="92"/>
+      <c r="F124" s="92"/>
+      <c r="G124" s="92"/>
       <c r="H124" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I124" s="93" t="s">
+      <c r="I124" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J124" s="93"/>
-      <c r="K124" s="93"/>
-      <c r="L124" s="93"/>
-      <c r="M124" s="93"/>
+      <c r="J124" s="92"/>
+      <c r="K124" s="92"/>
+      <c r="L124" s="92"/>
+      <c r="M124" s="92"/>
       <c r="N124" s="25"/>
       <c r="O124" s="25"/>
       <c r="P124" s="28">
@@ -22396,10 +22396,10 @@
       <c r="E148" s="42"/>
       <c r="F148" s="41"/>
       <c r="G148" s="39"/>
-      <c r="H148" s="95" t="s">
+      <c r="H148" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I148" s="95"/>
+      <c r="I148" s="107"/>
       <c r="J148" s="39">
         <f>G147</f>
         <v>48.682000000000002</v>
@@ -22428,10 +22428,10 @@
         <v>71</v>
       </c>
       <c r="G149" s="23"/>
-      <c r="H149" s="92">
+      <c r="H149" s="106">
         <v>0.36</v>
       </c>
-      <c r="I149" s="92"/>
+      <c r="I149" s="106"/>
       <c r="J149" s="42"/>
       <c r="K149" s="42"/>
       <c r="L149" s="42"/>
@@ -22441,24 +22441,24 @@
       <c r="P149" s="24"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="93" t="s">
+      <c r="B150" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C150" s="93"/>
-      <c r="D150" s="93"/>
-      <c r="E150" s="93"/>
-      <c r="F150" s="93"/>
-      <c r="G150" s="93"/>
+      <c r="C150" s="92"/>
+      <c r="D150" s="92"/>
+      <c r="E150" s="92"/>
+      <c r="F150" s="92"/>
+      <c r="G150" s="92"/>
       <c r="H150" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I150" s="93" t="s">
+      <c r="I150" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J150" s="93"/>
-      <c r="K150" s="93"/>
-      <c r="L150" s="93"/>
-      <c r="M150" s="93"/>
+      <c r="J150" s="92"/>
+      <c r="K150" s="92"/>
+      <c r="L150" s="92"/>
+      <c r="M150" s="92"/>
       <c r="N150" s="25"/>
       <c r="O150" s="25"/>
       <c r="P150" s="28">
@@ -23202,10 +23202,10 @@
       <c r="E174" s="42"/>
       <c r="F174" s="41"/>
       <c r="G174" s="39"/>
-      <c r="H174" s="95" t="s">
+      <c r="H174" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I174" s="95"/>
+      <c r="I174" s="107"/>
       <c r="J174" s="39">
         <f>G173</f>
         <v>56.713499999999996</v>
@@ -23234,10 +23234,10 @@
         <v>71</v>
       </c>
       <c r="G175" s="23"/>
-      <c r="H175" s="92">
+      <c r="H175" s="106">
         <v>0.4</v>
       </c>
-      <c r="I175" s="92"/>
+      <c r="I175" s="106"/>
       <c r="J175" s="42"/>
       <c r="K175" s="42"/>
       <c r="L175" s="42"/>
@@ -23247,24 +23247,24 @@
       <c r="P175" s="24"/>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B176" s="93" t="s">
+      <c r="B176" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C176" s="93"/>
-      <c r="D176" s="93"/>
-      <c r="E176" s="93"/>
-      <c r="F176" s="93"/>
-      <c r="G176" s="93"/>
+      <c r="C176" s="92"/>
+      <c r="D176" s="92"/>
+      <c r="E176" s="92"/>
+      <c r="F176" s="92"/>
+      <c r="G176" s="92"/>
       <c r="H176" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I176" s="93" t="s">
+      <c r="I176" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J176" s="93"/>
-      <c r="K176" s="93"/>
-      <c r="L176" s="93"/>
-      <c r="M176" s="93"/>
+      <c r="J176" s="92"/>
+      <c r="K176" s="92"/>
+      <c r="L176" s="92"/>
+      <c r="M176" s="92"/>
       <c r="N176" s="25"/>
       <c r="O176" s="25"/>
       <c r="P176" s="28">
@@ -23986,10 +23986,10 @@
       <c r="E200" s="42"/>
       <c r="F200" s="41"/>
       <c r="G200" s="39"/>
-      <c r="H200" s="95" t="s">
+      <c r="H200" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I200" s="95"/>
+      <c r="I200" s="107"/>
       <c r="J200" s="39">
         <f>G199</f>
         <v>54.845999999999997</v>
@@ -24018,10 +24018,10 @@
         <v>71</v>
       </c>
       <c r="G201" s="23"/>
-      <c r="H201" s="92">
+      <c r="H201" s="106">
         <v>0.5</v>
       </c>
-      <c r="I201" s="92"/>
+      <c r="I201" s="106"/>
       <c r="J201" s="42"/>
       <c r="K201" s="42"/>
       <c r="L201" s="42"/>
@@ -24031,24 +24031,24 @@
       <c r="P201" s="24"/>
     </row>
     <row r="202" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B202" s="93" t="s">
+      <c r="B202" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C202" s="93"/>
-      <c r="D202" s="93"/>
-      <c r="E202" s="93"/>
-      <c r="F202" s="93"/>
-      <c r="G202" s="93"/>
+      <c r="C202" s="92"/>
+      <c r="D202" s="92"/>
+      <c r="E202" s="92"/>
+      <c r="F202" s="92"/>
+      <c r="G202" s="92"/>
       <c r="H202" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I202" s="93" t="s">
+      <c r="I202" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J202" s="93"/>
-      <c r="K202" s="93"/>
-      <c r="L202" s="93"/>
-      <c r="M202" s="93"/>
+      <c r="J202" s="92"/>
+      <c r="K202" s="92"/>
+      <c r="L202" s="92"/>
+      <c r="M202" s="92"/>
       <c r="N202" s="25"/>
       <c r="O202" s="25"/>
       <c r="P202" s="28">
@@ -24783,10 +24783,10 @@
       <c r="E226" s="42"/>
       <c r="F226" s="41"/>
       <c r="G226" s="39"/>
-      <c r="H226" s="95" t="s">
+      <c r="H226" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I226" s="95"/>
+      <c r="I226" s="107"/>
       <c r="J226" s="39">
         <f>G225</f>
         <v>49.677999999999997</v>
@@ -24813,8 +24813,8 @@
       <c r="E227" s="39"/>
       <c r="F227" s="41"/>
       <c r="G227" s="39"/>
-      <c r="H227" s="95"/>
-      <c r="I227" s="95"/>
+      <c r="H227" s="107"/>
+      <c r="I227" s="107"/>
       <c r="J227" s="39"/>
       <c r="K227" s="39"/>
       <c r="L227" s="41"/>
@@ -24849,10 +24849,10 @@
         <v>71</v>
       </c>
       <c r="G229" s="23"/>
-      <c r="H229" s="92">
+      <c r="H229" s="106">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I229" s="92"/>
+      <c r="I229" s="106"/>
       <c r="J229" s="42"/>
       <c r="K229" s="42"/>
       <c r="L229" s="42"/>
@@ -24862,24 +24862,24 @@
       <c r="P229" s="24"/>
     </row>
     <row r="230" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B230" s="93" t="s">
+      <c r="B230" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C230" s="93"/>
-      <c r="D230" s="93"/>
-      <c r="E230" s="93"/>
-      <c r="F230" s="93"/>
-      <c r="G230" s="93"/>
+      <c r="C230" s="92"/>
+      <c r="D230" s="92"/>
+      <c r="E230" s="92"/>
+      <c r="F230" s="92"/>
+      <c r="G230" s="92"/>
       <c r="H230" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I230" s="93" t="s">
+      <c r="I230" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J230" s="93"/>
-      <c r="K230" s="93"/>
-      <c r="L230" s="93"/>
-      <c r="M230" s="93"/>
+      <c r="J230" s="92"/>
+      <c r="K230" s="92"/>
+      <c r="L230" s="92"/>
+      <c r="M230" s="92"/>
       <c r="N230" s="25"/>
       <c r="O230" s="25"/>
       <c r="P230" s="28">
@@ -25640,10 +25640,10 @@
       <c r="E254" s="42"/>
       <c r="F254" s="41"/>
       <c r="G254" s="39"/>
-      <c r="H254" s="95" t="s">
+      <c r="H254" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I254" s="95"/>
+      <c r="I254" s="107"/>
       <c r="J254" s="39">
         <f>G253</f>
         <v>56.936</v>
@@ -25672,10 +25672,10 @@
         <v>71</v>
       </c>
       <c r="G255" s="23"/>
-      <c r="H255" s="92">
+      <c r="H255" s="106">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I255" s="92"/>
+      <c r="I255" s="106"/>
       <c r="J255" s="42"/>
       <c r="K255" s="42"/>
       <c r="L255" s="42"/>
@@ -25685,24 +25685,24 @@
       <c r="P255" s="24"/>
     </row>
     <row r="256" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B256" s="93" t="s">
+      <c r="B256" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C256" s="93"/>
-      <c r="D256" s="93"/>
-      <c r="E256" s="93"/>
-      <c r="F256" s="93"/>
-      <c r="G256" s="93"/>
+      <c r="C256" s="92"/>
+      <c r="D256" s="92"/>
+      <c r="E256" s="92"/>
+      <c r="F256" s="92"/>
+      <c r="G256" s="92"/>
       <c r="H256" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I256" s="93" t="s">
+      <c r="I256" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J256" s="93"/>
-      <c r="K256" s="93"/>
-      <c r="L256" s="93"/>
-      <c r="M256" s="93"/>
+      <c r="J256" s="92"/>
+      <c r="K256" s="92"/>
+      <c r="L256" s="92"/>
+      <c r="M256" s="92"/>
       <c r="N256" s="25"/>
       <c r="O256" s="25"/>
       <c r="P256" s="28">
@@ -26463,10 +26463,10 @@
       <c r="E280" s="42"/>
       <c r="F280" s="41"/>
       <c r="G280" s="39"/>
-      <c r="H280" s="95" t="s">
+      <c r="H280" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I280" s="95"/>
+      <c r="I280" s="107"/>
       <c r="J280" s="39">
         <f>G279</f>
         <v>55.914249999999996</v>
@@ -26514,10 +26514,10 @@
         <v>71</v>
       </c>
       <c r="G282" s="23"/>
-      <c r="H282" s="92">
+      <c r="H282" s="106">
         <v>0.6</v>
       </c>
-      <c r="I282" s="92"/>
+      <c r="I282" s="106"/>
       <c r="J282" s="42"/>
       <c r="K282" s="42"/>
       <c r="L282" s="42"/>
@@ -26527,24 +26527,24 @@
       <c r="P282" s="24"/>
     </row>
     <row r="283" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B283" s="93" t="s">
+      <c r="B283" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C283" s="93"/>
-      <c r="D283" s="93"/>
-      <c r="E283" s="93"/>
-      <c r="F283" s="93"/>
-      <c r="G283" s="93"/>
+      <c r="C283" s="92"/>
+      <c r="D283" s="92"/>
+      <c r="E283" s="92"/>
+      <c r="F283" s="92"/>
+      <c r="G283" s="92"/>
       <c r="H283" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I283" s="93" t="s">
+      <c r="I283" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J283" s="93"/>
-      <c r="K283" s="93"/>
-      <c r="L283" s="93"/>
-      <c r="M283" s="93"/>
+      <c r="J283" s="92"/>
+      <c r="K283" s="92"/>
+      <c r="L283" s="92"/>
+      <c r="M283" s="92"/>
       <c r="N283" s="25"/>
       <c r="O283" s="25"/>
       <c r="P283" s="28">
@@ -27318,10 +27318,10 @@
       <c r="E307" s="42"/>
       <c r="F307" s="41"/>
       <c r="G307" s="39"/>
-      <c r="H307" s="95" t="s">
+      <c r="H307" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I307" s="95"/>
+      <c r="I307" s="107"/>
       <c r="J307" s="41">
         <f>G306</f>
         <v>54.38174999999999</v>
@@ -27369,10 +27369,10 @@
         <v>71</v>
       </c>
       <c r="G309" s="23"/>
-      <c r="H309" s="92">
+      <c r="H309" s="106">
         <v>0.7</v>
       </c>
-      <c r="I309" s="92"/>
+      <c r="I309" s="106"/>
       <c r="J309" s="42"/>
       <c r="K309" s="42"/>
       <c r="L309" s="42"/>
@@ -27382,24 +27382,24 @@
       <c r="P309" s="24"/>
     </row>
     <row r="310" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B310" s="93" t="s">
+      <c r="B310" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C310" s="93"/>
-      <c r="D310" s="93"/>
-      <c r="E310" s="93"/>
-      <c r="F310" s="93"/>
-      <c r="G310" s="93"/>
+      <c r="C310" s="92"/>
+      <c r="D310" s="92"/>
+      <c r="E310" s="92"/>
+      <c r="F310" s="92"/>
+      <c r="G310" s="92"/>
       <c r="H310" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I310" s="93" t="s">
+      <c r="I310" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J310" s="93"/>
-      <c r="K310" s="93"/>
-      <c r="L310" s="93"/>
-      <c r="M310" s="93"/>
+      <c r="J310" s="92"/>
+      <c r="K310" s="92"/>
+      <c r="L310" s="92"/>
+      <c r="M310" s="92"/>
       <c r="N310" s="25"/>
       <c r="O310" s="25"/>
       <c r="P310" s="28">
@@ -28305,10 +28305,10 @@
       <c r="E337" s="42"/>
       <c r="F337" s="41"/>
       <c r="G337" s="39"/>
-      <c r="H337" s="95" t="s">
+      <c r="H337" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I337" s="95"/>
+      <c r="I337" s="107"/>
       <c r="J337" s="41">
         <f>G336</f>
         <v>47.828000000000003</v>
@@ -28356,10 +28356,10 @@
         <v>71</v>
       </c>
       <c r="G339" s="23"/>
-      <c r="H339" s="92">
+      <c r="H339" s="106">
         <v>0.8</v>
       </c>
-      <c r="I339" s="92"/>
+      <c r="I339" s="106"/>
       <c r="J339" s="42"/>
       <c r="K339" s="42"/>
       <c r="L339" s="42"/>
@@ -28369,24 +28369,24 @@
       <c r="P339" s="24"/>
     </row>
     <row r="340" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B340" s="93" t="s">
+      <c r="B340" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C340" s="93"/>
-      <c r="D340" s="93"/>
-      <c r="E340" s="93"/>
-      <c r="F340" s="93"/>
-      <c r="G340" s="93"/>
+      <c r="C340" s="92"/>
+      <c r="D340" s="92"/>
+      <c r="E340" s="92"/>
+      <c r="F340" s="92"/>
+      <c r="G340" s="92"/>
       <c r="H340" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I340" s="93" t="s">
+      <c r="I340" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J340" s="93"/>
-      <c r="K340" s="93"/>
-      <c r="L340" s="93"/>
-      <c r="M340" s="93"/>
+      <c r="J340" s="92"/>
+      <c r="K340" s="92"/>
+      <c r="L340" s="92"/>
+      <c r="M340" s="92"/>
       <c r="N340" s="25"/>
       <c r="O340" s="25"/>
       <c r="P340" s="28">
@@ -29108,10 +29108,10 @@
       <c r="E364" s="42"/>
       <c r="F364" s="41"/>
       <c r="G364" s="39"/>
-      <c r="H364" s="95" t="s">
+      <c r="H364" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I364" s="95"/>
+      <c r="I364" s="107"/>
       <c r="J364" s="41">
         <f>G363</f>
         <v>43.250550000000004</v>
@@ -29140,10 +29140,10 @@
         <v>71</v>
       </c>
       <c r="G365" s="23"/>
-      <c r="H365" s="92">
+      <c r="H365" s="106">
         <v>0.9</v>
       </c>
-      <c r="I365" s="92"/>
+      <c r="I365" s="106"/>
       <c r="J365" s="42"/>
       <c r="K365" s="42"/>
       <c r="L365" s="42"/>
@@ -29153,24 +29153,24 @@
       <c r="P365" s="24"/>
     </row>
     <row r="366" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B366" s="93" t="s">
+      <c r="B366" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C366" s="93"/>
-      <c r="D366" s="93"/>
-      <c r="E366" s="93"/>
-      <c r="F366" s="93"/>
-      <c r="G366" s="93"/>
+      <c r="C366" s="92"/>
+      <c r="D366" s="92"/>
+      <c r="E366" s="92"/>
+      <c r="F366" s="92"/>
+      <c r="G366" s="92"/>
       <c r="H366" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I366" s="93" t="s">
+      <c r="I366" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J366" s="93"/>
-      <c r="K366" s="93"/>
-      <c r="L366" s="93"/>
-      <c r="M366" s="93"/>
+      <c r="J366" s="92"/>
+      <c r="K366" s="92"/>
+      <c r="L366" s="92"/>
+      <c r="M366" s="92"/>
       <c r="N366" s="25"/>
       <c r="O366" s="25"/>
       <c r="P366" s="28">
@@ -29888,10 +29888,10 @@
       <c r="E390" s="42"/>
       <c r="F390" s="41"/>
       <c r="G390" s="39"/>
-      <c r="H390" s="95" t="s">
+      <c r="H390" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I390" s="95"/>
+      <c r="I390" s="107"/>
       <c r="J390" s="41">
         <f>G389</f>
         <v>40.503199999999993</v>
@@ -29937,10 +29937,10 @@
         <v>71</v>
       </c>
       <c r="G392" s="23"/>
-      <c r="H392" s="92">
+      <c r="H392" s="106">
         <v>1</v>
       </c>
-      <c r="I392" s="92"/>
+      <c r="I392" s="106"/>
       <c r="J392" s="42"/>
       <c r="K392" s="42"/>
       <c r="L392" s="42"/>
@@ -29950,24 +29950,24 @@
       <c r="P392" s="24"/>
     </row>
     <row r="393" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B393" s="93" t="s">
+      <c r="B393" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C393" s="93"/>
-      <c r="D393" s="93"/>
-      <c r="E393" s="93"/>
-      <c r="F393" s="93"/>
-      <c r="G393" s="93"/>
+      <c r="C393" s="92"/>
+      <c r="D393" s="92"/>
+      <c r="E393" s="92"/>
+      <c r="F393" s="92"/>
+      <c r="G393" s="92"/>
       <c r="H393" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I393" s="93" t="s">
+      <c r="I393" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J393" s="93"/>
-      <c r="K393" s="93"/>
-      <c r="L393" s="93"/>
-      <c r="M393" s="93"/>
+      <c r="J393" s="92"/>
+      <c r="K393" s="92"/>
+      <c r="L393" s="92"/>
+      <c r="M393" s="92"/>
       <c r="N393" s="25"/>
       <c r="O393" s="25"/>
       <c r="P393" s="28">
@@ -30637,10 +30637,10 @@
       <c r="E417" s="42"/>
       <c r="F417" s="41"/>
       <c r="G417" s="39"/>
-      <c r="H417" s="95" t="s">
+      <c r="H417" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="I417" s="95"/>
+      <c r="I417" s="107"/>
       <c r="J417" s="41">
         <f>G416</f>
         <v>30.735500000000002</v>
@@ -30669,10 +30669,10 @@
         <v>71</v>
       </c>
       <c r="G418" s="23"/>
-      <c r="H418" s="92">
+      <c r="H418" s="106">
         <v>1.028</v>
       </c>
-      <c r="I418" s="92"/>
+      <c r="I418" s="106"/>
       <c r="J418" s="42"/>
       <c r="K418" s="42"/>
       <c r="L418" s="42"/>
@@ -30682,24 +30682,24 @@
       <c r="P418" s="24"/>
     </row>
     <row r="419" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B419" s="93" t="s">
+      <c r="B419" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C419" s="93"/>
-      <c r="D419" s="93"/>
-      <c r="E419" s="93"/>
-      <c r="F419" s="93"/>
-      <c r="G419" s="93"/>
+      <c r="C419" s="92"/>
+      <c r="D419" s="92"/>
+      <c r="E419" s="92"/>
+      <c r="F419" s="92"/>
+      <c r="G419" s="92"/>
       <c r="H419" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I419" s="93" t="s">
+      <c r="I419" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J419" s="93"/>
-      <c r="K419" s="93"/>
-      <c r="L419" s="93"/>
-      <c r="M419" s="93"/>
+      <c r="J419" s="92"/>
+      <c r="K419" s="92"/>
+      <c r="L419" s="92"/>
+      <c r="M419" s="92"/>
       <c r="N419" s="25"/>
       <c r="O419" s="25"/>
       <c r="P419" s="28">
@@ -31452,10 +31452,10 @@
         <v>71</v>
       </c>
       <c r="G447" s="23"/>
-      <c r="H447" s="92">
+      <c r="H447" s="106">
         <v>1.0429999999999999</v>
       </c>
-      <c r="I447" s="92"/>
+      <c r="I447" s="106"/>
       <c r="J447" s="42"/>
       <c r="K447" s="42"/>
       <c r="L447" s="42"/>
@@ -31465,24 +31465,24 @@
       <c r="P447" s="24"/>
     </row>
     <row r="448" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B448" s="93" t="s">
+      <c r="B448" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C448" s="93"/>
-      <c r="D448" s="93"/>
-      <c r="E448" s="93"/>
-      <c r="F448" s="93"/>
-      <c r="G448" s="93"/>
+      <c r="C448" s="92"/>
+      <c r="D448" s="92"/>
+      <c r="E448" s="92"/>
+      <c r="F448" s="92"/>
+      <c r="G448" s="92"/>
       <c r="H448" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I448" s="93" t="s">
+      <c r="I448" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J448" s="93"/>
-      <c r="K448" s="93"/>
-      <c r="L448" s="93"/>
-      <c r="M448" s="93"/>
+      <c r="J448" s="92"/>
+      <c r="K448" s="92"/>
+      <c r="L448" s="92"/>
+      <c r="M448" s="92"/>
       <c r="N448" s="25"/>
       <c r="O448" s="25"/>
       <c r="P448" s="28">
@@ -32296,10 +32296,10 @@
         <v>71</v>
       </c>
       <c r="G476" s="23"/>
-      <c r="H476" s="92">
+      <c r="H476" s="106">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I476" s="92"/>
+      <c r="I476" s="106"/>
       <c r="J476" s="42"/>
       <c r="K476" s="42"/>
       <c r="L476" s="42"/>
@@ -32309,24 +32309,24 @@
       <c r="P476" s="24"/>
     </row>
     <row r="477" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B477" s="93" t="s">
+      <c r="B477" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C477" s="93"/>
-      <c r="D477" s="93"/>
-      <c r="E477" s="93"/>
-      <c r="F477" s="93"/>
-      <c r="G477" s="93"/>
+      <c r="C477" s="92"/>
+      <c r="D477" s="92"/>
+      <c r="E477" s="92"/>
+      <c r="F477" s="92"/>
+      <c r="G477" s="92"/>
       <c r="H477" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I477" s="93" t="s">
+      <c r="I477" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J477" s="93"/>
-      <c r="K477" s="93"/>
-      <c r="L477" s="93"/>
-      <c r="M477" s="93"/>
+      <c r="J477" s="92"/>
+      <c r="K477" s="92"/>
+      <c r="L477" s="92"/>
+      <c r="M477" s="92"/>
       <c r="N477" s="25"/>
       <c r="O477" s="25"/>
       <c r="P477" s="28">
@@ -33118,10 +33118,10 @@
         <v>71</v>
       </c>
       <c r="G505" s="23"/>
-      <c r="H505" s="92">
+      <c r="H505" s="106">
         <v>1.2</v>
       </c>
-      <c r="I505" s="92"/>
+      <c r="I505" s="106"/>
       <c r="J505" s="42"/>
       <c r="K505" s="42"/>
       <c r="L505" s="42"/>
@@ -33131,24 +33131,24 @@
       <c r="P505" s="24"/>
     </row>
     <row r="506" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B506" s="93" t="s">
+      <c r="B506" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C506" s="93"/>
-      <c r="D506" s="93"/>
-      <c r="E506" s="93"/>
-      <c r="F506" s="93"/>
-      <c r="G506" s="93"/>
+      <c r="C506" s="92"/>
+      <c r="D506" s="92"/>
+      <c r="E506" s="92"/>
+      <c r="F506" s="92"/>
+      <c r="G506" s="92"/>
       <c r="H506" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I506" s="93" t="s">
+      <c r="I506" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J506" s="93"/>
-      <c r="K506" s="93"/>
-      <c r="L506" s="93"/>
-      <c r="M506" s="93"/>
+      <c r="J506" s="92"/>
+      <c r="K506" s="92"/>
+      <c r="L506" s="92"/>
+      <c r="M506" s="92"/>
       <c r="N506" s="25"/>
       <c r="O506" s="25"/>
       <c r="P506" s="28">
@@ -33953,10 +33953,10 @@
         <v>71</v>
       </c>
       <c r="G535" s="23"/>
-      <c r="H535" s="92">
+      <c r="H535" s="106">
         <v>1.3</v>
       </c>
-      <c r="I535" s="92"/>
+      <c r="I535" s="106"/>
       <c r="J535" s="42"/>
       <c r="K535" s="42"/>
       <c r="L535" s="42"/>
@@ -33966,24 +33966,24 @@
       <c r="P535" s="24"/>
     </row>
     <row r="536" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B536" s="93" t="s">
+      <c r="B536" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C536" s="93"/>
-      <c r="D536" s="93"/>
-      <c r="E536" s="93"/>
-      <c r="F536" s="93"/>
-      <c r="G536" s="93"/>
+      <c r="C536" s="92"/>
+      <c r="D536" s="92"/>
+      <c r="E536" s="92"/>
+      <c r="F536" s="92"/>
+      <c r="G536" s="92"/>
       <c r="H536" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I536" s="93" t="s">
+      <c r="I536" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J536" s="93"/>
-      <c r="K536" s="93"/>
-      <c r="L536" s="93"/>
-      <c r="M536" s="93"/>
+      <c r="J536" s="92"/>
+      <c r="K536" s="92"/>
+      <c r="L536" s="92"/>
+      <c r="M536" s="92"/>
       <c r="N536" s="25"/>
       <c r="O536" s="25"/>
       <c r="P536" s="28">
@@ -34840,10 +34840,10 @@
         <v>71</v>
       </c>
       <c r="G565" s="23"/>
-      <c r="H565" s="94">
+      <c r="H565" s="109">
         <v>1.4</v>
       </c>
-      <c r="I565" s="94"/>
+      <c r="I565" s="109"/>
       <c r="J565" s="42"/>
       <c r="K565" s="42"/>
       <c r="L565" s="42"/>
@@ -34853,24 +34853,24 @@
       <c r="P565" s="24"/>
     </row>
     <row r="566" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B566" s="93" t="s">
+      <c r="B566" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C566" s="93"/>
-      <c r="D566" s="93"/>
-      <c r="E566" s="93"/>
-      <c r="F566" s="93"/>
-      <c r="G566" s="93"/>
+      <c r="C566" s="92"/>
+      <c r="D566" s="92"/>
+      <c r="E566" s="92"/>
+      <c r="F566" s="92"/>
+      <c r="G566" s="92"/>
       <c r="H566" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I566" s="93" t="s">
+      <c r="I566" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J566" s="93"/>
-      <c r="K566" s="93"/>
-      <c r="L566" s="93"/>
-      <c r="M566" s="93"/>
+      <c r="J566" s="92"/>
+      <c r="K566" s="92"/>
+      <c r="L566" s="92"/>
+      <c r="M566" s="92"/>
       <c r="N566" s="25"/>
       <c r="O566" s="25"/>
       <c r="P566" s="28">
@@ -35727,10 +35727,10 @@
         <v>71</v>
       </c>
       <c r="G595" s="23"/>
-      <c r="H595" s="92">
+      <c r="H595" s="106">
         <v>1.5</v>
       </c>
-      <c r="I595" s="92"/>
+      <c r="I595" s="106"/>
       <c r="J595" s="42"/>
       <c r="K595" s="42"/>
       <c r="L595" s="42"/>
@@ -35740,24 +35740,24 @@
       <c r="P595" s="24"/>
     </row>
     <row r="596" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B596" s="93" t="s">
+      <c r="B596" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C596" s="93"/>
-      <c r="D596" s="93"/>
-      <c r="E596" s="93"/>
-      <c r="F596" s="93"/>
-      <c r="G596" s="93"/>
+      <c r="C596" s="92"/>
+      <c r="D596" s="92"/>
+      <c r="E596" s="92"/>
+      <c r="F596" s="92"/>
+      <c r="G596" s="92"/>
       <c r="H596" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I596" s="93" t="s">
+      <c r="I596" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J596" s="93"/>
-      <c r="K596" s="93"/>
-      <c r="L596" s="93"/>
-      <c r="M596" s="93"/>
+      <c r="J596" s="92"/>
+      <c r="K596" s="92"/>
+      <c r="L596" s="92"/>
+      <c r="M596" s="92"/>
       <c r="N596" s="25"/>
       <c r="O596" s="25"/>
       <c r="P596" s="28">
@@ -36662,10 +36662,10 @@
         <v>71</v>
       </c>
       <c r="G625" s="23"/>
-      <c r="H625" s="92">
+      <c r="H625" s="106">
         <v>1.6</v>
       </c>
-      <c r="I625" s="92"/>
+      <c r="I625" s="106"/>
       <c r="J625" s="42"/>
       <c r="K625" s="42"/>
       <c r="L625" s="42"/>
@@ -36675,24 +36675,24 @@
       <c r="P625" s="24"/>
     </row>
     <row r="626" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B626" s="93" t="s">
+      <c r="B626" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C626" s="93"/>
-      <c r="D626" s="93"/>
-      <c r="E626" s="93"/>
-      <c r="F626" s="93"/>
-      <c r="G626" s="93"/>
+      <c r="C626" s="92"/>
+      <c r="D626" s="92"/>
+      <c r="E626" s="92"/>
+      <c r="F626" s="92"/>
+      <c r="G626" s="92"/>
       <c r="H626" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I626" s="93" t="s">
+      <c r="I626" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J626" s="93"/>
-      <c r="K626" s="93"/>
-      <c r="L626" s="93"/>
-      <c r="M626" s="93"/>
+      <c r="J626" s="92"/>
+      <c r="K626" s="92"/>
+      <c r="L626" s="92"/>
+      <c r="M626" s="92"/>
       <c r="N626" s="25"/>
       <c r="O626" s="25"/>
       <c r="P626" s="28">
@@ -37709,10 +37709,10 @@
         <v>71</v>
       </c>
       <c r="G661" s="23"/>
-      <c r="H661" s="92">
+      <c r="H661" s="106">
         <v>1.7</v>
       </c>
-      <c r="I661" s="92"/>
+      <c r="I661" s="106"/>
       <c r="J661" s="42"/>
       <c r="K661" s="42"/>
       <c r="L661" s="42"/>
@@ -37722,24 +37722,24 @@
       <c r="P661" s="24"/>
     </row>
     <row r="662" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B662" s="93" t="s">
+      <c r="B662" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C662" s="93"/>
-      <c r="D662" s="93"/>
-      <c r="E662" s="93"/>
-      <c r="F662" s="93"/>
-      <c r="G662" s="93"/>
+      <c r="C662" s="92"/>
+      <c r="D662" s="92"/>
+      <c r="E662" s="92"/>
+      <c r="F662" s="92"/>
+      <c r="G662" s="92"/>
       <c r="H662" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I662" s="93" t="s">
+      <c r="I662" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J662" s="93"/>
-      <c r="K662" s="93"/>
-      <c r="L662" s="93"/>
-      <c r="M662" s="93"/>
+      <c r="J662" s="92"/>
+      <c r="K662" s="92"/>
+      <c r="L662" s="92"/>
+      <c r="M662" s="92"/>
       <c r="N662" s="25"/>
       <c r="O662" s="25"/>
       <c r="P662" s="28">
@@ -38519,10 +38519,10 @@
         <v>71</v>
       </c>
       <c r="G691" s="23"/>
-      <c r="H691" s="92">
+      <c r="H691" s="106">
         <v>1.75</v>
       </c>
-      <c r="I691" s="92"/>
+      <c r="I691" s="106"/>
       <c r="J691" s="42"/>
       <c r="K691" s="42"/>
       <c r="L691" s="42"/>
@@ -38532,24 +38532,24 @@
       <c r="P691" s="24"/>
     </row>
     <row r="692" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B692" s="93" t="s">
+      <c r="B692" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C692" s="93"/>
-      <c r="D692" s="93"/>
-      <c r="E692" s="93"/>
-      <c r="F692" s="93"/>
-      <c r="G692" s="93"/>
+      <c r="C692" s="92"/>
+      <c r="D692" s="92"/>
+      <c r="E692" s="92"/>
+      <c r="F692" s="92"/>
+      <c r="G692" s="92"/>
       <c r="H692" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I692" s="93" t="s">
+      <c r="I692" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J692" s="93"/>
-      <c r="K692" s="93"/>
-      <c r="L692" s="93"/>
-      <c r="M692" s="93"/>
+      <c r="J692" s="92"/>
+      <c r="K692" s="92"/>
+      <c r="L692" s="92"/>
+      <c r="M692" s="92"/>
       <c r="N692" s="25"/>
       <c r="O692" s="25"/>
       <c r="P692" s="28">
@@ -39563,69 +39563,69 @@
     </row>
     <row r="721" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="722" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B722" s="100" t="s">
+      <c r="B722" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="C722" s="101"/>
-      <c r="D722" s="101"/>
-      <c r="E722" s="101"/>
-      <c r="F722" s="101"/>
-      <c r="G722" s="101"/>
-      <c r="H722" s="101"/>
-      <c r="I722" s="102"/>
+      <c r="C722" s="94"/>
+      <c r="D722" s="94"/>
+      <c r="E722" s="94"/>
+      <c r="F722" s="94"/>
+      <c r="G722" s="94"/>
+      <c r="H722" s="94"/>
+      <c r="I722" s="95"/>
       <c r="J722" s="84"/>
       <c r="K722" s="84"/>
       <c r="L722" s="84"/>
       <c r="M722" s="84"/>
     </row>
     <row r="723" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B723" s="103"/>
-      <c r="C723" s="104"/>
-      <c r="D723" s="104"/>
-      <c r="E723" s="104"/>
-      <c r="F723" s="104"/>
-      <c r="G723" s="104"/>
-      <c r="H723" s="104"/>
-      <c r="I723" s="105"/>
+      <c r="B723" s="96"/>
+      <c r="C723" s="97"/>
+      <c r="D723" s="97"/>
+      <c r="E723" s="97"/>
+      <c r="F723" s="97"/>
+      <c r="G723" s="97"/>
+      <c r="H723" s="97"/>
+      <c r="I723" s="98"/>
       <c r="J723" s="84"/>
       <c r="K723" s="84"/>
       <c r="L723" s="84"/>
       <c r="M723" s="84"/>
     </row>
     <row r="724" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B724" s="103"/>
-      <c r="C724" s="104"/>
-      <c r="D724" s="104"/>
-      <c r="E724" s="104"/>
-      <c r="F724" s="104"/>
-      <c r="G724" s="104"/>
-      <c r="H724" s="104"/>
-      <c r="I724" s="105"/>
+      <c r="B724" s="96"/>
+      <c r="C724" s="97"/>
+      <c r="D724" s="97"/>
+      <c r="E724" s="97"/>
+      <c r="F724" s="97"/>
+      <c r="G724" s="97"/>
+      <c r="H724" s="97"/>
+      <c r="I724" s="98"/>
       <c r="J724" s="84"/>
       <c r="K724" s="84"/>
       <c r="L724" s="84"/>
       <c r="M724" s="84"/>
     </row>
     <row r="725" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B725" s="106"/>
-      <c r="C725" s="107"/>
-      <c r="D725" s="107"/>
-      <c r="E725" s="107"/>
-      <c r="F725" s="107"/>
-      <c r="G725" s="107"/>
-      <c r="H725" s="107"/>
-      <c r="I725" s="108"/>
+      <c r="B725" s="99"/>
+      <c r="C725" s="100"/>
+      <c r="D725" s="100"/>
+      <c r="E725" s="100"/>
+      <c r="F725" s="100"/>
+      <c r="G725" s="100"/>
+      <c r="H725" s="100"/>
+      <c r="I725" s="101"/>
       <c r="J725" s="84"/>
       <c r="K725" s="84"/>
       <c r="L725" s="84"/>
       <c r="M725" s="84"/>
     </row>
     <row r="726" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B726" s="109" t="s">
+      <c r="B726" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="C726" s="109"/>
-      <c r="D726" s="109"/>
+      <c r="C726" s="102"/>
+      <c r="D726" s="102"/>
       <c r="E726" s="85" t="s">
         <v>138</v>
       </c>
@@ -53624,24 +53624,78 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="B732:D732"/>
-    <mergeCell ref="B733:D733"/>
-    <mergeCell ref="B752:D752"/>
-    <mergeCell ref="B753:D753"/>
-    <mergeCell ref="B754:D754"/>
-    <mergeCell ref="B755:D755"/>
-    <mergeCell ref="B756:D756"/>
-    <mergeCell ref="B757:D757"/>
-    <mergeCell ref="B758:D758"/>
-    <mergeCell ref="B692:G692"/>
-    <mergeCell ref="I692:M692"/>
-    <mergeCell ref="B722:I725"/>
-    <mergeCell ref="B726:D726"/>
-    <mergeCell ref="B727:D727"/>
-    <mergeCell ref="B728:D728"/>
-    <mergeCell ref="B729:D729"/>
-    <mergeCell ref="B730:D730"/>
-    <mergeCell ref="B731:D731"/>
+    <mergeCell ref="B749:D749"/>
+    <mergeCell ref="B750:D750"/>
+    <mergeCell ref="B751:D751"/>
+    <mergeCell ref="H595:I595"/>
+    <mergeCell ref="B596:G596"/>
+    <mergeCell ref="I596:M596"/>
+    <mergeCell ref="H625:I625"/>
+    <mergeCell ref="B626:G626"/>
+    <mergeCell ref="I626:M626"/>
+    <mergeCell ref="H661:I661"/>
+    <mergeCell ref="B662:G662"/>
+    <mergeCell ref="I662:M662"/>
+    <mergeCell ref="H505:I505"/>
+    <mergeCell ref="B506:G506"/>
+    <mergeCell ref="I506:M506"/>
+    <mergeCell ref="H535:I535"/>
+    <mergeCell ref="B536:G536"/>
+    <mergeCell ref="I536:M536"/>
+    <mergeCell ref="H565:I565"/>
+    <mergeCell ref="B566:G566"/>
+    <mergeCell ref="I566:M566"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="H417:I417"/>
+    <mergeCell ref="H418:I418"/>
+    <mergeCell ref="B419:G419"/>
+    <mergeCell ref="I419:M419"/>
+    <mergeCell ref="H447:I447"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="I67:M67"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="I97:M97"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="I176:M176"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="B202:G202"/>
+    <mergeCell ref="I202:M202"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="I310:M310"/>
+    <mergeCell ref="B283:G283"/>
+    <mergeCell ref="I283:M283"/>
+    <mergeCell ref="H307:I307"/>
+    <mergeCell ref="H309:I309"/>
+    <mergeCell ref="B310:G310"/>
+    <mergeCell ref="H390:I390"/>
+    <mergeCell ref="H392:I392"/>
+    <mergeCell ref="B393:G393"/>
+    <mergeCell ref="I393:M393"/>
+    <mergeCell ref="H337:I337"/>
+    <mergeCell ref="H339:I339"/>
+    <mergeCell ref="B340:G340"/>
+    <mergeCell ref="I340:M340"/>
+    <mergeCell ref="H364:I364"/>
+    <mergeCell ref="H365:I365"/>
+    <mergeCell ref="B366:G366"/>
+    <mergeCell ref="I366:M366"/>
     <mergeCell ref="O30:Q30"/>
     <mergeCell ref="H123:I123"/>
     <mergeCell ref="B124:G124"/>
@@ -53666,75 +53720,24 @@
     <mergeCell ref="I256:M256"/>
     <mergeCell ref="H280:I280"/>
     <mergeCell ref="H282:I282"/>
-    <mergeCell ref="B283:G283"/>
-    <mergeCell ref="I283:M283"/>
-    <mergeCell ref="H307:I307"/>
-    <mergeCell ref="H309:I309"/>
-    <mergeCell ref="B310:G310"/>
-    <mergeCell ref="H390:I390"/>
-    <mergeCell ref="H392:I392"/>
-    <mergeCell ref="B393:G393"/>
-    <mergeCell ref="I393:M393"/>
-    <mergeCell ref="H417:I417"/>
-    <mergeCell ref="H418:I418"/>
-    <mergeCell ref="B419:G419"/>
-    <mergeCell ref="I419:M419"/>
-    <mergeCell ref="H447:I447"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="I67:M67"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="I97:M97"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="B176:G176"/>
-    <mergeCell ref="I176:M176"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="B202:G202"/>
-    <mergeCell ref="I202:M202"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="I310:M310"/>
-    <mergeCell ref="H337:I337"/>
-    <mergeCell ref="H339:I339"/>
-    <mergeCell ref="B340:G340"/>
-    <mergeCell ref="I340:M340"/>
-    <mergeCell ref="H364:I364"/>
-    <mergeCell ref="H365:I365"/>
-    <mergeCell ref="B366:G366"/>
-    <mergeCell ref="I366:M366"/>
-    <mergeCell ref="H505:I505"/>
-    <mergeCell ref="B506:G506"/>
-    <mergeCell ref="I506:M506"/>
-    <mergeCell ref="H535:I535"/>
-    <mergeCell ref="B536:G536"/>
-    <mergeCell ref="I536:M536"/>
-    <mergeCell ref="H565:I565"/>
-    <mergeCell ref="B566:G566"/>
-    <mergeCell ref="I566:M566"/>
-    <mergeCell ref="H595:I595"/>
-    <mergeCell ref="B596:G596"/>
-    <mergeCell ref="I596:M596"/>
-    <mergeCell ref="H625:I625"/>
-    <mergeCell ref="B626:G626"/>
-    <mergeCell ref="I626:M626"/>
-    <mergeCell ref="H661:I661"/>
-    <mergeCell ref="B662:G662"/>
-    <mergeCell ref="I662:M662"/>
+    <mergeCell ref="B692:G692"/>
+    <mergeCell ref="I692:M692"/>
+    <mergeCell ref="B722:I725"/>
+    <mergeCell ref="B726:D726"/>
+    <mergeCell ref="B727:D727"/>
+    <mergeCell ref="B728:D728"/>
+    <mergeCell ref="B729:D729"/>
+    <mergeCell ref="B730:D730"/>
+    <mergeCell ref="B731:D731"/>
+    <mergeCell ref="B732:D732"/>
+    <mergeCell ref="B733:D733"/>
+    <mergeCell ref="B752:D752"/>
+    <mergeCell ref="B753:D753"/>
+    <mergeCell ref="B754:D754"/>
+    <mergeCell ref="B755:D755"/>
+    <mergeCell ref="B756:D756"/>
+    <mergeCell ref="B757:D757"/>
+    <mergeCell ref="B758:D758"/>
     <mergeCell ref="B734:D734"/>
     <mergeCell ref="B735:D735"/>
     <mergeCell ref="B736:D736"/>
@@ -53750,9 +53753,6 @@
     <mergeCell ref="B746:D746"/>
     <mergeCell ref="B747:D747"/>
     <mergeCell ref="B748:D748"/>
-    <mergeCell ref="B749:D749"/>
-    <mergeCell ref="B750:D750"/>
-    <mergeCell ref="B751:D751"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -53809,7 +53809,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53887,10 +53887,10 @@
         <v>144</v>
       </c>
       <c r="H2" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I2" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J2" s="3">
         <v>0.6</v>
@@ -53925,10 +53925,10 @@
         <v>144</v>
       </c>
       <c r="H3" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I3" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J3" s="3">
         <v>0.6</v>
@@ -53963,10 +53963,10 @@
         <v>144</v>
       </c>
       <c r="H4" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I4" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J4" s="3">
         <v>0.6</v>
@@ -54001,10 +54001,10 @@
         <v>144</v>
       </c>
       <c r="H5" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I5" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J5" s="3">
         <v>0.6</v>
@@ -54039,10 +54039,10 @@
         <v>144</v>
       </c>
       <c r="H6" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I6" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J6" s="3">
         <v>0.6</v>
@@ -54077,10 +54077,10 @@
         <v>144</v>
       </c>
       <c r="H7" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I7" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J7" s="3">
         <v>0.6</v>
@@ -54115,10 +54115,10 @@
         <v>144</v>
       </c>
       <c r="H8" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I8" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J8" s="3">
         <v>0.6</v>
@@ -54153,10 +54153,10 @@
         <v>144</v>
       </c>
       <c r="H9" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I9" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J9" s="3">
         <v>0.6</v>
@@ -54191,10 +54191,10 @@
         <v>144</v>
       </c>
       <c r="H10" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I10" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J10" s="3">
         <v>0.6</v>
@@ -54229,10 +54229,10 @@
         <v>144</v>
       </c>
       <c r="H11" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I11" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J11" s="3">
         <v>0.6</v>
@@ -54267,10 +54267,10 @@
         <v>144</v>
       </c>
       <c r="H12" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I12" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J12" s="3">
         <v>0.6</v>
@@ -54305,10 +54305,10 @@
         <v>144</v>
       </c>
       <c r="H13" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I13" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J13" s="3">
         <v>0.6</v>
@@ -54343,10 +54343,10 @@
         <v>144</v>
       </c>
       <c r="H14" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I14" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J14" s="3">
         <v>0.6</v>
@@ -54381,10 +54381,10 @@
         <v>144</v>
       </c>
       <c r="H15" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I15" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J15" s="3">
         <v>0.6</v>
@@ -54419,10 +54419,10 @@
         <v>144</v>
       </c>
       <c r="H16" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I16" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J16" s="3">
         <v>0.6</v>
@@ -54457,10 +54457,10 @@
         <v>144</v>
       </c>
       <c r="H17" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I17" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J17" s="3">
         <v>0.6</v>
@@ -54495,10 +54495,10 @@
         <v>144</v>
       </c>
       <c r="H18" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I18" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J18" s="3">
         <v>0.6</v>
@@ -54533,10 +54533,10 @@
         <v>144</v>
       </c>
       <c r="H19" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I19" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J19" s="3">
         <v>0.6</v>
@@ -54571,10 +54571,10 @@
         <v>144</v>
       </c>
       <c r="H20" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I20" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J20" s="3">
         <v>0.6</v>
@@ -54609,10 +54609,10 @@
         <v>144</v>
       </c>
       <c r="H21" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I21" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J21" s="3">
         <v>0.6</v>
@@ -54647,10 +54647,10 @@
         <v>144</v>
       </c>
       <c r="H22" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I22" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J22" s="3">
         <v>0.6</v>
@@ -54685,10 +54685,10 @@
         <v>144</v>
       </c>
       <c r="H23" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I23" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J23" s="3">
         <v>0.6</v>
@@ -54723,10 +54723,10 @@
         <v>144</v>
       </c>
       <c r="H24" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I24" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J24" s="3">
         <v>0.6</v>
@@ -54761,10 +54761,10 @@
         <v>144</v>
       </c>
       <c r="H25" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I25" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J25" s="3">
         <v>0.6</v>
@@ -54799,10 +54799,10 @@
         <v>144</v>
       </c>
       <c r="H26" s="3">
-        <v>0.40200000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="I26" s="3">
-        <v>-1.6</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="J26" s="3">
         <v>0.6</v>
@@ -55062,7 +55062,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55108,7 +55108,7 @@
         <v>170</v>
       </c>
       <c r="B2" s="6">
-        <v>-1.6</v>
+        <v>-0.49</v>
       </c>
       <c r="C2" s="7">
         <v>3</v>

--- a/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Gunapar_khal/Gunapara_khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Southwest Project/SMO Gopalgonj/Khal/P2/XL OF CROSS SECTION/Gunapar_khal/Gunapara_khal_Dataprep_Input.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="176">
   <si>
     <t>XsectionNo</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>29/11/2024</t>
-  </si>
-  <si>
-    <t>SW_HMP_01</t>
   </si>
   <si>
     <t>Data</t>
@@ -383,9 +380,6 @@
     <t>Garden</t>
   </si>
   <si>
-    <t>GBK</t>
-  </si>
-  <si>
     <t>(Md. Mostafa Kamal),AE</t>
   </si>
   <si>
@@ -569,10 +563,28 @@
     <t>GNK24</t>
   </si>
   <si>
-    <t>Gunapara khal</t>
+    <t>Re-excavation of Gunapara Khal from km. 0.000 to km. 1.750 in polder -1  in c/w Tarail-Pachuria Sub-Project under CRISP-WRM under Specialized Division. BWDB, Gopalganj during the year 2024-2025</t>
   </si>
   <si>
-    <t>Re-excavation of Gunapara Khal from km. 0.000 to km. 1.750 in polder -1  in c/w Tarail-Pachuria Sub-Project under CRISP-WRM under Specialized Division. BWDB, Gopalganj during the year 2024-2025</t>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>TP_KEX_10_14</t>
+  </si>
+  <si>
+    <t>package_name_of_khal</t>
+  </si>
+  <si>
+    <t>Data written vertically</t>
+  </si>
+  <si>
+    <t>Long_Slope_Direction</t>
+  </si>
+  <si>
+    <t>1:zero chaiange at outfall 0:zero chainage at origin</t>
+  </si>
+  <si>
+    <t>GNK</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1018,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1255,8 +1267,29 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1288,26 +1321,8 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="20" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1655,11 +1670,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225903744"/>
-        <c:axId val="225905280"/>
+        <c:axId val="243587712"/>
+        <c:axId val="246589312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225903744"/>
+        <c:axId val="243587712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1705,12 +1720,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225905280"/>
+        <c:crossAx val="246589312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225905280"/>
+        <c:axId val="246589312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225903744"/>
+        <c:crossAx val="243587712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2075,11 +2090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246078080"/>
-        <c:axId val="246092160"/>
+        <c:axId val="146874752"/>
+        <c:axId val="146876288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246078080"/>
+        <c:axId val="146874752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2125,12 +2140,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246092160"/>
+        <c:crossAx val="146876288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246092160"/>
+        <c:axId val="146876288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2175,7 +2190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246078080"/>
+        <c:crossAx val="146874752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2501,11 +2516,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246113408"/>
-        <c:axId val="246114944"/>
+        <c:axId val="146901632"/>
+        <c:axId val="146903424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246113408"/>
+        <c:axId val="146901632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2551,12 +2566,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246114944"/>
+        <c:crossAx val="146903424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246114944"/>
+        <c:axId val="146903424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +2616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246113408"/>
+        <c:crossAx val="146901632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2951,11 +2966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246146944"/>
-        <c:axId val="246148480"/>
+        <c:axId val="146931072"/>
+        <c:axId val="146945152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246146944"/>
+        <c:axId val="146931072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3001,12 +3016,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246148480"/>
+        <c:crossAx val="146945152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246148480"/>
+        <c:axId val="146945152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246146944"/>
+        <c:crossAx val="146931072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3353,11 +3368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246187904"/>
-        <c:axId val="246189440"/>
+        <c:axId val="146980224"/>
+        <c:axId val="146982016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246187904"/>
+        <c:axId val="146980224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3403,12 +3418,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246189440"/>
+        <c:crossAx val="146982016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246189440"/>
+        <c:axId val="146982016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3453,7 +3468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246187904"/>
+        <c:crossAx val="146980224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3743,11 +3758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246808960"/>
-        <c:axId val="246810496"/>
+        <c:axId val="148903808"/>
+        <c:axId val="148905344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246808960"/>
+        <c:axId val="148903808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3793,12 +3808,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246810496"/>
+        <c:crossAx val="148905344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246810496"/>
+        <c:axId val="148905344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,7 +3858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246808960"/>
+        <c:crossAx val="148903808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4121,11 +4136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246852224"/>
-        <c:axId val="246854016"/>
+        <c:axId val="148943232"/>
+        <c:axId val="148944768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246852224"/>
+        <c:axId val="148943232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4171,12 +4186,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246854016"/>
+        <c:crossAx val="148944768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246854016"/>
+        <c:axId val="148944768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4221,7 +4236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246852224"/>
+        <c:crossAx val="148943232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4499,11 +4514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246964608"/>
-        <c:axId val="246966144"/>
+        <c:axId val="152512384"/>
+        <c:axId val="152513920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246964608"/>
+        <c:axId val="152512384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4549,12 +4564,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246966144"/>
+        <c:crossAx val="152513920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246966144"/>
+        <c:axId val="152513920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4599,7 +4614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246964608"/>
+        <c:crossAx val="152512384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4895,11 +4910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246991488"/>
-        <c:axId val="246874496"/>
+        <c:axId val="152560000"/>
+        <c:axId val="152561536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246991488"/>
+        <c:axId val="152560000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4945,12 +4960,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246874496"/>
+        <c:crossAx val="152561536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246874496"/>
+        <c:axId val="152561536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4995,7 +5010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246991488"/>
+        <c:crossAx val="152560000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5291,11 +5306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246916608"/>
-        <c:axId val="246918144"/>
+        <c:axId val="152906368"/>
+        <c:axId val="152912256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246916608"/>
+        <c:axId val="152906368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5341,12 +5356,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246918144"/>
+        <c:crossAx val="152912256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246918144"/>
+        <c:axId val="152912256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5391,7 +5406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246916608"/>
+        <c:crossAx val="152906368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5693,11 +5708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246611968"/>
-        <c:axId val="246613504"/>
+        <c:axId val="152941696"/>
+        <c:axId val="152943232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246611968"/>
+        <c:axId val="152941696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5743,12 +5758,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246613504"/>
+        <c:crossAx val="152943232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246613504"/>
+        <c:axId val="152943232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5793,7 +5808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246611968"/>
+        <c:crossAx val="152941696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6107,11 +6122,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225922432"/>
-        <c:axId val="225932416"/>
+        <c:axId val="248251520"/>
+        <c:axId val="248253056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225922432"/>
+        <c:axId val="248251520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6157,12 +6172,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225932416"/>
+        <c:crossAx val="248253056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225932416"/>
+        <c:axId val="248253056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6207,7 +6222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225922432"/>
+        <c:crossAx val="248251520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6533,11 +6548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246634752"/>
-        <c:axId val="246665216"/>
+        <c:axId val="153755008"/>
+        <c:axId val="153756800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246634752"/>
+        <c:axId val="153755008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6583,12 +6598,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246665216"/>
+        <c:crossAx val="153756800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246665216"/>
+        <c:axId val="153756800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6633,7 +6648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246634752"/>
+        <c:crossAx val="153755008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6959,11 +6974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246760576"/>
-        <c:axId val="246762112"/>
+        <c:axId val="153807104"/>
+        <c:axId val="154075136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246760576"/>
+        <c:axId val="153807104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7009,12 +7024,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246762112"/>
+        <c:crossAx val="154075136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246762112"/>
+        <c:axId val="154075136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7059,7 +7074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246760576"/>
+        <c:crossAx val="153807104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7397,11 +7412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246779264"/>
-        <c:axId val="246793344"/>
+        <c:axId val="154088192"/>
+        <c:axId val="154089728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246779264"/>
+        <c:axId val="154088192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7447,12 +7462,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246793344"/>
+        <c:crossAx val="154089728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246793344"/>
+        <c:axId val="154089728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7497,7 +7512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246779264"/>
+        <c:crossAx val="154088192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7847,11 +7862,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247338880"/>
-        <c:axId val="247340416"/>
+        <c:axId val="154110976"/>
+        <c:axId val="154129152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247338880"/>
+        <c:axId val="154110976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7897,12 +7912,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247340416"/>
+        <c:crossAx val="154129152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247340416"/>
+        <c:axId val="154129152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7947,7 +7962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247338880"/>
+        <c:crossAx val="154110976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8237,11 +8252,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247390592"/>
-        <c:axId val="247392128"/>
+        <c:axId val="206845440"/>
+        <c:axId val="206846976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247390592"/>
+        <c:axId val="206845440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8287,12 +8302,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247392128"/>
+        <c:crossAx val="206846976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247392128"/>
+        <c:axId val="206846976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8337,7 +8352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247390592"/>
+        <c:crossAx val="206845440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8723,11 +8738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247294208"/>
-        <c:axId val="247304192"/>
+        <c:axId val="206876032"/>
+        <c:axId val="206890112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247294208"/>
+        <c:axId val="206876032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8773,12 +8788,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247304192"/>
+        <c:crossAx val="206890112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247304192"/>
+        <c:axId val="206890112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8823,7 +8838,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247294208"/>
+        <c:crossAx val="206876032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9155,11 +9170,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244806016"/>
-        <c:axId val="244807552"/>
+        <c:axId val="248260480"/>
+        <c:axId val="248262016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244806016"/>
+        <c:axId val="248260480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9205,12 +9220,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244807552"/>
+        <c:crossAx val="248262016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244807552"/>
+        <c:axId val="248262016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9255,7 +9270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244806016"/>
+        <c:crossAx val="248260480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9557,11 +9572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246309248"/>
-        <c:axId val="246310784"/>
+        <c:axId val="248313728"/>
+        <c:axId val="248315264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246309248"/>
+        <c:axId val="248313728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9607,12 +9622,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246310784"/>
+        <c:crossAx val="248315264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246310784"/>
+        <c:axId val="248315264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9657,7 +9672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246309248"/>
+        <c:crossAx val="248313728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9953,11 +9968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246358784"/>
-        <c:axId val="246360320"/>
+        <c:axId val="265646464"/>
+        <c:axId val="265648000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246358784"/>
+        <c:axId val="265646464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10003,12 +10018,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246360320"/>
+        <c:crossAx val="265648000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246360320"/>
+        <c:axId val="265648000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10053,7 +10068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246358784"/>
+        <c:crossAx val="265646464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10355,11 +10370,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246389760"/>
-        <c:axId val="246399744"/>
+        <c:axId val="265681536"/>
+        <c:axId val="266383744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246389760"/>
+        <c:axId val="265681536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10405,12 +10420,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246399744"/>
+        <c:crossAx val="266383744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246399744"/>
+        <c:axId val="266383744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10455,7 +10470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246389760"/>
+        <c:crossAx val="265681536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10751,11 +10766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246420992"/>
-        <c:axId val="246422528"/>
+        <c:axId val="266429568"/>
+        <c:axId val="266431104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246420992"/>
+        <c:axId val="266429568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -10801,12 +10816,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246422528"/>
+        <c:crossAx val="266431104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246422528"/>
+        <c:axId val="266431104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10851,7 +10866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246420992"/>
+        <c:crossAx val="266429568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11159,11 +11174,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246464512"/>
-        <c:axId val="246466048"/>
+        <c:axId val="219745664"/>
+        <c:axId val="219751552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246464512"/>
+        <c:axId val="219745664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11209,12 +11224,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246466048"/>
+        <c:crossAx val="219751552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246466048"/>
+        <c:axId val="219751552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11259,7 +11274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246464512"/>
+        <c:crossAx val="219745664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11579,11 +11594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246043008"/>
-        <c:axId val="246044544"/>
+        <c:axId val="219785088"/>
+        <c:axId val="219786624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246043008"/>
+        <c:axId val="219785088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -11629,12 +11644,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246044544"/>
+        <c:crossAx val="219786624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246044544"/>
+        <c:axId val="219786624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11679,7 +11694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246043008"/>
+        <c:crossAx val="219785088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11753,7 +11768,7 @@
         <xdr:cNvPr id="48" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11791,7 +11806,7 @@
         <xdr:cNvPr id="49" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11829,7 +11844,7 @@
         <xdr:cNvPr id="50" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11867,7 +11882,7 @@
         <xdr:cNvPr id="51" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11905,7 +11920,7 @@
         <xdr:cNvPr id="52" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11943,7 +11958,7 @@
         <xdr:cNvPr id="53" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11981,7 +11996,7 @@
         <xdr:cNvPr id="54" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12019,7 +12034,7 @@
         <xdr:cNvPr id="55" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12057,7 +12072,7 @@
         <xdr:cNvPr id="56" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12095,7 +12110,7 @@
         <xdr:cNvPr id="57" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12133,7 +12148,7 @@
         <xdr:cNvPr id="58" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12171,7 +12186,7 @@
         <xdr:cNvPr id="59" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12209,7 +12224,7 @@
         <xdr:cNvPr id="60" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12247,7 +12262,7 @@
         <xdr:cNvPr id="61" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12285,7 +12300,7 @@
         <xdr:cNvPr id="62" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12323,7 +12338,7 @@
         <xdr:cNvPr id="63" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12361,7 +12376,7 @@
         <xdr:cNvPr id="64" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12399,7 +12414,7 @@
         <xdr:cNvPr id="65" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12437,7 +12452,7 @@
         <xdr:cNvPr id="66" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12475,7 +12490,7 @@
         <xdr:cNvPr id="67" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12513,7 +12528,7 @@
         <xdr:cNvPr id="68" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12551,7 +12566,7 @@
         <xdr:cNvPr id="69" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12589,7 +12604,7 @@
         <xdr:cNvPr id="70" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12627,7 +12642,7 @@
         <xdr:cNvPr id="71" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12665,7 +12680,7 @@
         <xdr:cNvPr id="72" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17417,7 +17432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -17427,8 +17442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2964"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A203" activeCellId="1" sqref="A215:XFD215 A203:XFD203"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A693" sqref="A693:XFD693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17831,21 +17846,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
+      <c r="A1" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
@@ -17885,13 +17900,13 @@
       <c r="D3" s="22"/>
       <c r="E3" s="42"/>
       <c r="F3" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="23"/>
-      <c r="H3" s="106">
+      <c r="H3" s="92">
         <v>0</v>
       </c>
-      <c r="I3" s="106"/>
+      <c r="I3" s="92"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
@@ -17902,57 +17917,57 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>117</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="L4" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="M4" s="23" t="s">
         <v>117</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="I5" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
+      <c r="B5" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="I5" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
@@ -17965,7 +17980,7 @@
         <v>0.55700000000000005</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
@@ -18588,7 +18603,7 @@
         <v>0.69399999999999995</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E20" s="39">
         <f t="shared" si="3"/>
@@ -18836,10 +18851,10 @@
         <f>SUM(G7:G27)</f>
         <v>17.738499999999998</v>
       </c>
-      <c r="H28" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="107"/>
+      <c r="H28" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="96"/>
       <c r="J28" s="39">
         <f>G28</f>
         <v>17.738499999999998</v>
@@ -18893,11 +18908,11 @@
       <c r="L30" s="42"/>
       <c r="M30" s="42"/>
       <c r="N30" s="24"/>
-      <c r="O30" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="105"/>
+      <c r="O30" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="99"/>
       <c r="R30" s="24"/>
     </row>
     <row r="31" spans="2:19" ht="15" x14ac:dyDescent="0.2">
@@ -18915,13 +18930,13 @@
       <c r="M31" s="42"/>
       <c r="N31" s="24"/>
       <c r="O31" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="P31" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31" s="61" t="s">
         <v>123</v>
-      </c>
-      <c r="P31" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q31" s="61" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="32" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -18939,7 +18954,7 @@
       <c r="M32" s="42"/>
       <c r="N32" s="24"/>
       <c r="O32" s="62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P32" s="63">
         <v>3</v>
@@ -18955,8 +18970,8 @@
       <c r="E33" s="42"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
       <c r="J33" s="39"/>
       <c r="K33" s="39"/>
       <c r="L33" s="41"/>
@@ -18972,8 +18987,8 @@
       <c r="E34" s="42"/>
       <c r="F34" s="41"/>
       <c r="G34" s="39"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
       <c r="J34" s="39"/>
       <c r="K34" s="39"/>
       <c r="L34" s="41"/>
@@ -18988,13 +19003,13 @@
       <c r="D35" s="22"/>
       <c r="E35" s="42"/>
       <c r="F35" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="23"/>
-      <c r="H35" s="106">
+      <c r="H35" s="92">
         <v>0.1</v>
       </c>
-      <c r="I35" s="106"/>
+      <c r="I35" s="92"/>
       <c r="J35" s="42"/>
       <c r="K35" s="42"/>
       <c r="L35" s="42"/>
@@ -19004,24 +19019,24 @@
       <c r="P35" s="24"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
+      <c r="B36" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
       <c r="H36" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I36" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
@@ -19034,7 +19049,7 @@
         <v>2.6760000000000002</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
@@ -19592,7 +19607,7 @@
         <v>2.883</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51" s="39">
         <f t="shared" si="8"/>
@@ -19870,16 +19885,16 @@
       <c r="E65" s="42"/>
       <c r="F65" s="41"/>
       <c r="G65" s="39"/>
-      <c r="H65" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I65" s="107"/>
+      <c r="H65" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I65" s="96"/>
       <c r="J65" s="39">
         <f>G59</f>
         <v>68.039999999999992</v>
       </c>
       <c r="K65" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L65" s="41">
         <f>M59</f>
@@ -19899,13 +19914,13 @@
       <c r="D66" s="22"/>
       <c r="E66" s="42"/>
       <c r="F66" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G66" s="23"/>
-      <c r="H66" s="106">
+      <c r="H66" s="92">
         <v>0.2</v>
       </c>
-      <c r="I66" s="106"/>
+      <c r="I66" s="92"/>
       <c r="J66" s="42"/>
       <c r="K66" s="42"/>
       <c r="L66" s="42"/>
@@ -19918,24 +19933,24 @@
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
+      <c r="B67" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="93"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="93"/>
       <c r="H67" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I67" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J67" s="92"/>
-      <c r="K67" s="92"/>
-      <c r="L67" s="92"/>
-      <c r="M67" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I67" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J67" s="93"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="93"/>
+      <c r="M67" s="93"/>
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
       <c r="P67" s="25"/>
@@ -19948,7 +19963,7 @@
         <v>1.421</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
@@ -20580,7 +20595,7 @@
         <v>1.2350000000000001</v>
       </c>
       <c r="D84" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E84" s="39">
         <f t="shared" si="16"/>
@@ -20762,16 +20777,16 @@
       <c r="E94" s="42"/>
       <c r="F94" s="41"/>
       <c r="G94" s="39"/>
-      <c r="H94" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I94" s="107"/>
+      <c r="H94" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I94" s="96"/>
       <c r="J94" s="39">
         <f>G93</f>
         <v>41.518999999999998</v>
       </c>
       <c r="K94" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L94" s="41">
         <f>M93</f>
@@ -20816,13 +20831,13 @@
       <c r="D96" s="22"/>
       <c r="E96" s="42"/>
       <c r="F96" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G96" s="23"/>
-      <c r="H96" s="106">
+      <c r="H96" s="92">
         <v>0.3</v>
       </c>
-      <c r="I96" s="106"/>
+      <c r="I96" s="92"/>
       <c r="J96" s="42"/>
       <c r="K96" s="42"/>
       <c r="L96" s="42"/>
@@ -20835,24 +20850,24 @@
       </c>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C97" s="92"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
+      <c r="B97" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="93"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="93"/>
       <c r="H97" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I97" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J97" s="92"/>
-      <c r="K97" s="92"/>
-      <c r="L97" s="92"/>
-      <c r="M97" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I97" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J97" s="93"/>
+      <c r="K97" s="93"/>
+      <c r="L97" s="93"/>
+      <c r="M97" s="93"/>
       <c r="N97" s="25"/>
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
@@ -20865,7 +20880,7 @@
         <v>2.5830000000000002</v>
       </c>
       <c r="D98" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E98" s="41"/>
       <c r="F98" s="41"/>
@@ -21321,7 +21336,7 @@
         <v>2.5190000000000001</v>
       </c>
       <c r="D110" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E110" s="39">
         <f t="shared" si="24"/>
@@ -21571,16 +21586,16 @@
       <c r="E121" s="42"/>
       <c r="F121" s="41"/>
       <c r="G121" s="39"/>
-      <c r="H121" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I121" s="107"/>
+      <c r="H121" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I121" s="96"/>
       <c r="J121" s="39">
         <f>G120</f>
         <v>59.981999999999999</v>
       </c>
       <c r="K121" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L121" s="41">
         <f>M118</f>
@@ -21619,13 +21634,13 @@
       <c r="D123" s="22"/>
       <c r="E123" s="42"/>
       <c r="F123" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G123" s="23"/>
-      <c r="H123" s="106">
+      <c r="H123" s="92">
         <v>0.35499999999999998</v>
       </c>
-      <c r="I123" s="106"/>
+      <c r="I123" s="92"/>
       <c r="J123" s="42"/>
       <c r="K123" s="42"/>
       <c r="L123" s="42"/>
@@ -21635,24 +21650,24 @@
       <c r="P123" s="24"/>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C124" s="92"/>
-      <c r="D124" s="92"/>
-      <c r="E124" s="92"/>
-      <c r="F124" s="92"/>
-      <c r="G124" s="92"/>
+      <c r="B124" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" s="93"/>
+      <c r="D124" s="93"/>
+      <c r="E124" s="93"/>
+      <c r="F124" s="93"/>
+      <c r="G124" s="93"/>
       <c r="H124" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I124" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J124" s="92"/>
-      <c r="K124" s="92"/>
-      <c r="L124" s="92"/>
-      <c r="M124" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I124" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J124" s="93"/>
+      <c r="K124" s="93"/>
+      <c r="L124" s="93"/>
+      <c r="M124" s="93"/>
       <c r="N124" s="25"/>
       <c r="O124" s="25"/>
       <c r="P124" s="28">
@@ -21668,7 +21683,7 @@
         <v>1.413</v>
       </c>
       <c r="D125" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E125" s="41"/>
       <c r="F125" s="41"/>
@@ -22164,7 +22179,7 @@
         <v>2.403</v>
       </c>
       <c r="D137" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E137" s="39">
         <f t="shared" si="35"/>
@@ -22396,16 +22411,16 @@
       <c r="E148" s="42"/>
       <c r="F148" s="41"/>
       <c r="G148" s="39"/>
-      <c r="H148" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I148" s="107"/>
+      <c r="H148" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I148" s="96"/>
       <c r="J148" s="39">
         <f>G147</f>
         <v>48.682000000000002</v>
       </c>
       <c r="K148" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L148" s="41">
         <f>M145</f>
@@ -22425,13 +22440,13 @@
       <c r="D149" s="22"/>
       <c r="E149" s="42"/>
       <c r="F149" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G149" s="23"/>
-      <c r="H149" s="106">
+      <c r="H149" s="92">
         <v>0.36</v>
       </c>
-      <c r="I149" s="106"/>
+      <c r="I149" s="92"/>
       <c r="J149" s="42"/>
       <c r="K149" s="42"/>
       <c r="L149" s="42"/>
@@ -22441,24 +22456,24 @@
       <c r="P149" s="24"/>
     </row>
     <row r="150" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B150" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C150" s="92"/>
-      <c r="D150" s="92"/>
-      <c r="E150" s="92"/>
-      <c r="F150" s="92"/>
-      <c r="G150" s="92"/>
+      <c r="B150" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C150" s="93"/>
+      <c r="D150" s="93"/>
+      <c r="E150" s="93"/>
+      <c r="F150" s="93"/>
+      <c r="G150" s="93"/>
       <c r="H150" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I150" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J150" s="92"/>
-      <c r="K150" s="92"/>
-      <c r="L150" s="92"/>
-      <c r="M150" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I150" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J150" s="93"/>
+      <c r="K150" s="93"/>
+      <c r="L150" s="93"/>
+      <c r="M150" s="93"/>
       <c r="N150" s="25"/>
       <c r="O150" s="25"/>
       <c r="P150" s="28">
@@ -22474,7 +22489,7 @@
         <v>2.371</v>
       </c>
       <c r="D151" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E151" s="41"/>
       <c r="F151" s="41"/>
@@ -22957,7 +22972,7 @@
         <v>2.1720000000000002</v>
       </c>
       <c r="D163" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E163" s="39">
         <f t="shared" si="38"/>
@@ -23202,16 +23217,16 @@
       <c r="E174" s="42"/>
       <c r="F174" s="41"/>
       <c r="G174" s="39"/>
-      <c r="H174" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I174" s="107"/>
+      <c r="H174" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I174" s="96"/>
       <c r="J174" s="39">
         <f>G173</f>
         <v>56.713499999999996</v>
       </c>
       <c r="K174" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L174" s="41">
         <f>M171</f>
@@ -23231,13 +23246,13 @@
       <c r="D175" s="22"/>
       <c r="E175" s="42"/>
       <c r="F175" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G175" s="23"/>
-      <c r="H175" s="106">
+      <c r="H175" s="92">
         <v>0.4</v>
       </c>
-      <c r="I175" s="106"/>
+      <c r="I175" s="92"/>
       <c r="J175" s="42"/>
       <c r="K175" s="42"/>
       <c r="L175" s="42"/>
@@ -23247,24 +23262,24 @@
       <c r="P175" s="24"/>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B176" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C176" s="92"/>
-      <c r="D176" s="92"/>
-      <c r="E176" s="92"/>
-      <c r="F176" s="92"/>
-      <c r="G176" s="92"/>
+      <c r="B176" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C176" s="93"/>
+      <c r="D176" s="93"/>
+      <c r="E176" s="93"/>
+      <c r="F176" s="93"/>
+      <c r="G176" s="93"/>
       <c r="H176" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I176" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J176" s="92"/>
-      <c r="K176" s="92"/>
-      <c r="L176" s="92"/>
-      <c r="M176" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I176" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J176" s="93"/>
+      <c r="K176" s="93"/>
+      <c r="L176" s="93"/>
+      <c r="M176" s="93"/>
       <c r="N176" s="25"/>
       <c r="O176" s="25"/>
       <c r="P176" s="28">
@@ -23280,7 +23295,7 @@
         <v>1.8580000000000001</v>
       </c>
       <c r="D177" s="47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E177" s="41"/>
       <c r="F177" s="41"/>
@@ -23776,7 +23791,7 @@
         <v>2.016</v>
       </c>
       <c r="D189" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E189" s="39">
         <f t="shared" si="49"/>
@@ -23986,16 +24001,16 @@
       <c r="E200" s="42"/>
       <c r="F200" s="41"/>
       <c r="G200" s="39"/>
-      <c r="H200" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I200" s="107"/>
+      <c r="H200" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I200" s="96"/>
       <c r="J200" s="39">
         <f>G199</f>
         <v>54.845999999999997</v>
       </c>
       <c r="K200" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L200" s="41">
         <f>M197</f>
@@ -24015,13 +24030,13 @@
       <c r="D201" s="22"/>
       <c r="E201" s="42"/>
       <c r="F201" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G201" s="23"/>
-      <c r="H201" s="106">
+      <c r="H201" s="92">
         <v>0.5</v>
       </c>
-      <c r="I201" s="106"/>
+      <c r="I201" s="92"/>
       <c r="J201" s="42"/>
       <c r="K201" s="42"/>
       <c r="L201" s="42"/>
@@ -24031,24 +24046,24 @@
       <c r="P201" s="24"/>
     </row>
     <row r="202" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B202" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C202" s="92"/>
-      <c r="D202" s="92"/>
-      <c r="E202" s="92"/>
-      <c r="F202" s="92"/>
-      <c r="G202" s="92"/>
+      <c r="B202" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C202" s="93"/>
+      <c r="D202" s="93"/>
+      <c r="E202" s="93"/>
+      <c r="F202" s="93"/>
+      <c r="G202" s="93"/>
       <c r="H202" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I202" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J202" s="92"/>
-      <c r="K202" s="92"/>
-      <c r="L202" s="92"/>
-      <c r="M202" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I202" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J202" s="93"/>
+      <c r="K202" s="93"/>
+      <c r="L202" s="93"/>
+      <c r="M202" s="93"/>
       <c r="N202" s="25"/>
       <c r="O202" s="25"/>
       <c r="P202" s="28">
@@ -24064,7 +24079,7 @@
         <v>1.5660000000000001</v>
       </c>
       <c r="D203" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E203" s="41"/>
       <c r="F203" s="41"/>
@@ -24520,7 +24535,7 @@
         <v>1.889</v>
       </c>
       <c r="D215" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E215" s="39">
         <f t="shared" si="52"/>
@@ -24783,16 +24798,16 @@
       <c r="E226" s="42"/>
       <c r="F226" s="41"/>
       <c r="G226" s="39"/>
-      <c r="H226" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I226" s="107"/>
+      <c r="H226" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I226" s="96"/>
       <c r="J226" s="39">
         <f>G225</f>
         <v>49.677999999999997</v>
       </c>
       <c r="K226" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L226" s="41">
         <f>M223</f>
@@ -24813,8 +24828,8 @@
       <c r="E227" s="39"/>
       <c r="F227" s="41"/>
       <c r="G227" s="39"/>
-      <c r="H227" s="107"/>
-      <c r="I227" s="107"/>
+      <c r="H227" s="96"/>
+      <c r="I227" s="96"/>
       <c r="J227" s="39"/>
       <c r="K227" s="39"/>
       <c r="L227" s="41"/>
@@ -24846,13 +24861,13 @@
       <c r="D229" s="22"/>
       <c r="E229" s="42"/>
       <c r="F229" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G229" s="23"/>
-      <c r="H229" s="106">
+      <c r="H229" s="92">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I229" s="106"/>
+      <c r="I229" s="92"/>
       <c r="J229" s="42"/>
       <c r="K229" s="42"/>
       <c r="L229" s="42"/>
@@ -24862,24 +24877,24 @@
       <c r="P229" s="24"/>
     </row>
     <row r="230" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B230" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C230" s="92"/>
-      <c r="D230" s="92"/>
-      <c r="E230" s="92"/>
-      <c r="F230" s="92"/>
-      <c r="G230" s="92"/>
+      <c r="B230" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C230" s="93"/>
+      <c r="D230" s="93"/>
+      <c r="E230" s="93"/>
+      <c r="F230" s="93"/>
+      <c r="G230" s="93"/>
       <c r="H230" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I230" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J230" s="92"/>
-      <c r="K230" s="92"/>
-      <c r="L230" s="92"/>
-      <c r="M230" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I230" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J230" s="93"/>
+      <c r="K230" s="93"/>
+      <c r="L230" s="93"/>
+      <c r="M230" s="93"/>
       <c r="N230" s="25"/>
       <c r="O230" s="25"/>
       <c r="P230" s="28">
@@ -24895,7 +24910,7 @@
         <v>1.609</v>
       </c>
       <c r="D231" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E231" s="41"/>
       <c r="F231" s="41"/>
@@ -25426,7 +25441,7 @@
         <v>2.3340000000000001</v>
       </c>
       <c r="D245" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E245" s="39">
         <f t="shared" si="60"/>
@@ -25640,16 +25655,16 @@
       <c r="E254" s="42"/>
       <c r="F254" s="41"/>
       <c r="G254" s="39"/>
-      <c r="H254" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I254" s="107"/>
+      <c r="H254" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I254" s="96"/>
       <c r="J254" s="39">
         <f>G253</f>
         <v>56.936</v>
       </c>
       <c r="K254" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L254" s="41">
         <f>M251</f>
@@ -25669,13 +25684,13 @@
       <c r="D255" s="22"/>
       <c r="E255" s="42"/>
       <c r="F255" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G255" s="23"/>
-      <c r="H255" s="106">
+      <c r="H255" s="92">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I255" s="106"/>
+      <c r="I255" s="92"/>
       <c r="J255" s="42"/>
       <c r="K255" s="42"/>
       <c r="L255" s="42"/>
@@ -25685,24 +25700,24 @@
       <c r="P255" s="24"/>
     </row>
     <row r="256" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B256" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C256" s="92"/>
-      <c r="D256" s="92"/>
-      <c r="E256" s="92"/>
-      <c r="F256" s="92"/>
-      <c r="G256" s="92"/>
+      <c r="B256" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C256" s="93"/>
+      <c r="D256" s="93"/>
+      <c r="E256" s="93"/>
+      <c r="F256" s="93"/>
+      <c r="G256" s="93"/>
       <c r="H256" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I256" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J256" s="92"/>
-      <c r="K256" s="92"/>
-      <c r="L256" s="92"/>
-      <c r="M256" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I256" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J256" s="93"/>
+      <c r="K256" s="93"/>
+      <c r="L256" s="93"/>
+      <c r="M256" s="93"/>
       <c r="N256" s="25"/>
       <c r="O256" s="25"/>
       <c r="P256" s="28">
@@ -25718,7 +25733,7 @@
         <v>1.6359999999999999</v>
       </c>
       <c r="D257" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E257" s="41"/>
       <c r="F257" s="41"/>
@@ -26263,7 +26278,7 @@
         <v>2.29</v>
       </c>
       <c r="D271" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E271" s="39">
         <f t="shared" si="66"/>
@@ -26463,16 +26478,16 @@
       <c r="E280" s="42"/>
       <c r="F280" s="41"/>
       <c r="G280" s="39"/>
-      <c r="H280" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I280" s="107"/>
+      <c r="H280" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I280" s="96"/>
       <c r="J280" s="39">
         <f>G279</f>
         <v>55.914249999999996</v>
       </c>
       <c r="K280" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L280" s="41">
         <f>M277</f>
@@ -26511,13 +26526,13 @@
       <c r="D282" s="22"/>
       <c r="E282" s="42"/>
       <c r="F282" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G282" s="23"/>
-      <c r="H282" s="106">
+      <c r="H282" s="92">
         <v>0.6</v>
       </c>
-      <c r="I282" s="106"/>
+      <c r="I282" s="92"/>
       <c r="J282" s="42"/>
       <c r="K282" s="42"/>
       <c r="L282" s="42"/>
@@ -26527,24 +26542,24 @@
       <c r="P282" s="24"/>
     </row>
     <row r="283" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B283" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C283" s="92"/>
-      <c r="D283" s="92"/>
-      <c r="E283" s="92"/>
-      <c r="F283" s="92"/>
-      <c r="G283" s="92"/>
+      <c r="B283" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C283" s="93"/>
+      <c r="D283" s="93"/>
+      <c r="E283" s="93"/>
+      <c r="F283" s="93"/>
+      <c r="G283" s="93"/>
       <c r="H283" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I283" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J283" s="92"/>
-      <c r="K283" s="92"/>
-      <c r="L283" s="92"/>
-      <c r="M283" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I283" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J283" s="93"/>
+      <c r="K283" s="93"/>
+      <c r="L283" s="93"/>
+      <c r="M283" s="93"/>
       <c r="N283" s="25"/>
       <c r="O283" s="25"/>
       <c r="P283" s="28">
@@ -26560,7 +26575,7 @@
         <v>1.7190000000000001</v>
       </c>
       <c r="D284" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E284" s="41"/>
       <c r="F284" s="41"/>
@@ -27104,7 +27119,7 @@
         <v>2.234</v>
       </c>
       <c r="D298" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E298" s="39">
         <f t="shared" si="72"/>
@@ -27318,16 +27333,16 @@
       <c r="E307" s="42"/>
       <c r="F307" s="41"/>
       <c r="G307" s="39"/>
-      <c r="H307" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I307" s="107"/>
+      <c r="H307" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I307" s="96"/>
       <c r="J307" s="41">
         <f>G306</f>
         <v>54.38174999999999</v>
       </c>
       <c r="K307" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L307" s="41">
         <f>M306</f>
@@ -27366,13 +27381,13 @@
       <c r="D309" s="22"/>
       <c r="E309" s="42"/>
       <c r="F309" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G309" s="23"/>
-      <c r="H309" s="106">
+      <c r="H309" s="92">
         <v>0.7</v>
       </c>
-      <c r="I309" s="106"/>
+      <c r="I309" s="92"/>
       <c r="J309" s="42"/>
       <c r="K309" s="42"/>
       <c r="L309" s="42"/>
@@ -27382,24 +27397,24 @@
       <c r="P309" s="24"/>
     </row>
     <row r="310" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B310" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C310" s="92"/>
-      <c r="D310" s="92"/>
-      <c r="E310" s="92"/>
-      <c r="F310" s="92"/>
-      <c r="G310" s="92"/>
+      <c r="B310" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C310" s="93"/>
+      <c r="D310" s="93"/>
+      <c r="E310" s="93"/>
+      <c r="F310" s="93"/>
+      <c r="G310" s="93"/>
       <c r="H310" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I310" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J310" s="92"/>
-      <c r="K310" s="92"/>
-      <c r="L310" s="92"/>
-      <c r="M310" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I310" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J310" s="93"/>
+      <c r="K310" s="93"/>
+      <c r="L310" s="93"/>
+      <c r="M310" s="93"/>
       <c r="N310" s="25"/>
       <c r="O310" s="25"/>
       <c r="P310" s="28">
@@ -27415,7 +27430,7 @@
         <v>1.415</v>
       </c>
       <c r="D311" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E311" s="41"/>
       <c r="F311" s="41"/>
@@ -27942,7 +27957,7 @@
         <v>2.09</v>
       </c>
       <c r="D325" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E325" s="39">
         <f t="shared" si="78"/>
@@ -28305,16 +28320,16 @@
       <c r="E337" s="42"/>
       <c r="F337" s="41"/>
       <c r="G337" s="39"/>
-      <c r="H337" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I337" s="107"/>
+      <c r="H337" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I337" s="96"/>
       <c r="J337" s="41">
         <f>G336</f>
         <v>47.828000000000003</v>
       </c>
       <c r="K337" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L337" s="41">
         <f>M336</f>
@@ -28353,13 +28368,13 @@
       <c r="D339" s="22"/>
       <c r="E339" s="42"/>
       <c r="F339" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G339" s="23"/>
-      <c r="H339" s="106">
+      <c r="H339" s="92">
         <v>0.8</v>
       </c>
-      <c r="I339" s="106"/>
+      <c r="I339" s="92"/>
       <c r="J339" s="42"/>
       <c r="K339" s="42"/>
       <c r="L339" s="42"/>
@@ -28369,24 +28384,24 @@
       <c r="P339" s="24"/>
     </row>
     <row r="340" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B340" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C340" s="92"/>
-      <c r="D340" s="92"/>
-      <c r="E340" s="92"/>
-      <c r="F340" s="92"/>
-      <c r="G340" s="92"/>
+      <c r="B340" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C340" s="93"/>
+      <c r="D340" s="93"/>
+      <c r="E340" s="93"/>
+      <c r="F340" s="93"/>
+      <c r="G340" s="93"/>
       <c r="H340" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I340" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J340" s="92"/>
-      <c r="K340" s="92"/>
-      <c r="L340" s="92"/>
-      <c r="M340" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I340" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J340" s="93"/>
+      <c r="K340" s="93"/>
+      <c r="L340" s="93"/>
+      <c r="M340" s="93"/>
       <c r="N340" s="25"/>
       <c r="O340" s="25"/>
       <c r="P340" s="28">
@@ -28402,7 +28417,7 @@
         <v>1.64</v>
       </c>
       <c r="D341" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E341" s="41"/>
       <c r="F341" s="41"/>
@@ -28843,7 +28858,7 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="D353" s="47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E353" s="39">
         <f t="shared" si="84"/>
@@ -29108,16 +29123,16 @@
       <c r="E364" s="42"/>
       <c r="F364" s="41"/>
       <c r="G364" s="39"/>
-      <c r="H364" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I364" s="107"/>
+      <c r="H364" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I364" s="96"/>
       <c r="J364" s="41">
         <f>G363</f>
         <v>43.250550000000004</v>
       </c>
       <c r="K364" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L364" s="41">
         <f>M363</f>
@@ -29137,13 +29152,13 @@
       <c r="D365" s="22"/>
       <c r="E365" s="42"/>
       <c r="F365" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G365" s="23"/>
-      <c r="H365" s="106">
+      <c r="H365" s="92">
         <v>0.9</v>
       </c>
-      <c r="I365" s="106"/>
+      <c r="I365" s="92"/>
       <c r="J365" s="42"/>
       <c r="K365" s="42"/>
       <c r="L365" s="42"/>
@@ -29153,24 +29168,24 @@
       <c r="P365" s="24"/>
     </row>
     <row r="366" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B366" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C366" s="92"/>
-      <c r="D366" s="92"/>
-      <c r="E366" s="92"/>
-      <c r="F366" s="92"/>
-      <c r="G366" s="92"/>
+      <c r="B366" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C366" s="93"/>
+      <c r="D366" s="93"/>
+      <c r="E366" s="93"/>
+      <c r="F366" s="93"/>
+      <c r="G366" s="93"/>
       <c r="H366" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I366" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J366" s="92"/>
-      <c r="K366" s="92"/>
-      <c r="L366" s="92"/>
-      <c r="M366" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I366" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J366" s="93"/>
+      <c r="K366" s="93"/>
+      <c r="L366" s="93"/>
+      <c r="M366" s="93"/>
       <c r="N366" s="25"/>
       <c r="O366" s="25"/>
       <c r="P366" s="28">
@@ -29186,7 +29201,7 @@
         <v>2.2709999999999999</v>
       </c>
       <c r="D367" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E367" s="41"/>
       <c r="F367" s="41"/>
@@ -29580,7 +29595,7 @@
         <v>2.4609999999999999</v>
       </c>
       <c r="D378" s="47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E378" s="39">
         <f t="shared" si="90"/>
@@ -29888,16 +29903,16 @@
       <c r="E390" s="42"/>
       <c r="F390" s="41"/>
       <c r="G390" s="39"/>
-      <c r="H390" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I390" s="107"/>
+      <c r="H390" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I390" s="96"/>
       <c r="J390" s="41">
         <f>G389</f>
         <v>40.503199999999993</v>
       </c>
       <c r="K390" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L390" s="41">
         <f>M389</f>
@@ -29934,13 +29949,13 @@
       <c r="D392" s="22"/>
       <c r="E392" s="42"/>
       <c r="F392" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G392" s="23"/>
-      <c r="H392" s="106">
+      <c r="H392" s="92">
         <v>1</v>
       </c>
-      <c r="I392" s="106"/>
+      <c r="I392" s="92"/>
       <c r="J392" s="42"/>
       <c r="K392" s="42"/>
       <c r="L392" s="42"/>
@@ -29950,24 +29965,24 @@
       <c r="P392" s="24"/>
     </row>
     <row r="393" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B393" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C393" s="92"/>
-      <c r="D393" s="92"/>
-      <c r="E393" s="92"/>
-      <c r="F393" s="92"/>
-      <c r="G393" s="92"/>
+      <c r="B393" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C393" s="93"/>
+      <c r="D393" s="93"/>
+      <c r="E393" s="93"/>
+      <c r="F393" s="93"/>
+      <c r="G393" s="93"/>
       <c r="H393" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I393" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J393" s="92"/>
-      <c r="K393" s="92"/>
-      <c r="L393" s="92"/>
-      <c r="M393" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I393" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J393" s="93"/>
+      <c r="K393" s="93"/>
+      <c r="L393" s="93"/>
+      <c r="M393" s="93"/>
       <c r="N393" s="25"/>
       <c r="O393" s="25"/>
       <c r="P393" s="28">
@@ -29983,7 +29998,7 @@
         <v>2.3279999999999998</v>
       </c>
       <c r="D394" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E394" s="41"/>
       <c r="F394" s="41"/>
@@ -30332,7 +30347,7 @@
         <v>2.6930000000000001</v>
       </c>
       <c r="D404" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E404" s="39">
         <f t="shared" si="96"/>
@@ -30637,16 +30652,16 @@
       <c r="E417" s="42"/>
       <c r="F417" s="41"/>
       <c r="G417" s="39"/>
-      <c r="H417" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="I417" s="107"/>
+      <c r="H417" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="I417" s="96"/>
       <c r="J417" s="41">
         <f>G416</f>
         <v>30.735500000000002</v>
       </c>
       <c r="K417" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L417" s="41">
         <f>M416</f>
@@ -30666,13 +30681,13 @@
       <c r="D418" s="22"/>
       <c r="E418" s="42"/>
       <c r="F418" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G418" s="23"/>
-      <c r="H418" s="106">
+      <c r="H418" s="92">
         <v>1.028</v>
       </c>
-      <c r="I418" s="106"/>
+      <c r="I418" s="92"/>
       <c r="J418" s="42"/>
       <c r="K418" s="42"/>
       <c r="L418" s="42"/>
@@ -30682,24 +30697,24 @@
       <c r="P418" s="24"/>
     </row>
     <row r="419" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B419" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C419" s="92"/>
-      <c r="D419" s="92"/>
-      <c r="E419" s="92"/>
-      <c r="F419" s="92"/>
-      <c r="G419" s="92"/>
+      <c r="B419" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C419" s="93"/>
+      <c r="D419" s="93"/>
+      <c r="E419" s="93"/>
+      <c r="F419" s="93"/>
+      <c r="G419" s="93"/>
       <c r="H419" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I419" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J419" s="92"/>
-      <c r="K419" s="92"/>
-      <c r="L419" s="92"/>
-      <c r="M419" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I419" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J419" s="93"/>
+      <c r="K419" s="93"/>
+      <c r="L419" s="93"/>
+      <c r="M419" s="93"/>
       <c r="N419" s="25"/>
       <c r="O419" s="25"/>
       <c r="P419" s="28">
@@ -30715,7 +30730,7 @@
         <v>3.3279999999999998</v>
       </c>
       <c r="D420" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E420" s="41"/>
       <c r="F420" s="41"/>
@@ -31105,7 +31120,7 @@
         <v>1.968</v>
       </c>
       <c r="D430" s="47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E430" s="39">
         <f t="shared" si="102"/>
@@ -31420,7 +31435,7 @@
       <c r="F446" s="41"/>
       <c r="G446" s="39"/>
       <c r="H446" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I446" s="41"/>
       <c r="J446" s="41">
@@ -31428,7 +31443,7 @@
         <v>25.919249999999998</v>
       </c>
       <c r="K446" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L446" s="41">
         <f>M444</f>
@@ -31449,13 +31464,13 @@
       <c r="D447" s="22"/>
       <c r="E447" s="42"/>
       <c r="F447" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G447" s="23"/>
-      <c r="H447" s="106">
+      <c r="H447" s="92">
         <v>1.0429999999999999</v>
       </c>
-      <c r="I447" s="106"/>
+      <c r="I447" s="92"/>
       <c r="J447" s="42"/>
       <c r="K447" s="42"/>
       <c r="L447" s="42"/>
@@ -31465,24 +31480,24 @@
       <c r="P447" s="24"/>
     </row>
     <row r="448" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B448" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C448" s="92"/>
-      <c r="D448" s="92"/>
-      <c r="E448" s="92"/>
-      <c r="F448" s="92"/>
-      <c r="G448" s="92"/>
+      <c r="B448" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C448" s="93"/>
+      <c r="D448" s="93"/>
+      <c r="E448" s="93"/>
+      <c r="F448" s="93"/>
+      <c r="G448" s="93"/>
       <c r="H448" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I448" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J448" s="92"/>
-      <c r="K448" s="92"/>
-      <c r="L448" s="92"/>
-      <c r="M448" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I448" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J448" s="93"/>
+      <c r="K448" s="93"/>
+      <c r="L448" s="93"/>
+      <c r="M448" s="93"/>
       <c r="N448" s="25"/>
       <c r="O448" s="25"/>
       <c r="P448" s="28">
@@ -31498,7 +31513,7 @@
         <v>1.9039999999999999</v>
       </c>
       <c r="D449" s="47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E449" s="41"/>
       <c r="F449" s="41"/>
@@ -31872,7 +31887,7 @@
         <v>3.4969999999999999</v>
       </c>
       <c r="D459" s="47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E459" s="39">
         <f t="shared" si="108"/>
@@ -32264,7 +32279,7 @@
       <c r="F475" s="41"/>
       <c r="G475" s="39"/>
       <c r="H475" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I475" s="41"/>
       <c r="J475" s="41">
@@ -32272,7 +32287,7 @@
         <v>26.844730000000002</v>
       </c>
       <c r="K475" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L475" s="41">
         <f>M473</f>
@@ -32293,13 +32308,13 @@
       <c r="D476" s="22"/>
       <c r="E476" s="42"/>
       <c r="F476" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G476" s="23"/>
-      <c r="H476" s="106">
+      <c r="H476" s="92">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I476" s="106"/>
+      <c r="I476" s="92"/>
       <c r="J476" s="42"/>
       <c r="K476" s="42"/>
       <c r="L476" s="42"/>
@@ -32309,24 +32324,24 @@
       <c r="P476" s="24"/>
     </row>
     <row r="477" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B477" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C477" s="92"/>
-      <c r="D477" s="92"/>
-      <c r="E477" s="92"/>
-      <c r="F477" s="92"/>
-      <c r="G477" s="92"/>
+      <c r="B477" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C477" s="93"/>
+      <c r="D477" s="93"/>
+      <c r="E477" s="93"/>
+      <c r="F477" s="93"/>
+      <c r="G477" s="93"/>
       <c r="H477" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I477" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J477" s="92"/>
-      <c r="K477" s="92"/>
-      <c r="L477" s="92"/>
-      <c r="M477" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I477" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J477" s="93"/>
+      <c r="K477" s="93"/>
+      <c r="L477" s="93"/>
+      <c r="M477" s="93"/>
       <c r="N477" s="25"/>
       <c r="O477" s="25"/>
       <c r="P477" s="28">
@@ -32342,7 +32357,7 @@
         <v>1.4550000000000001</v>
       </c>
       <c r="D478" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E478" s="41"/>
       <c r="F478" s="41"/>
@@ -32790,7 +32805,7 @@
         <v>2.6579999999999999</v>
       </c>
       <c r="D489" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E489" s="39">
         <f t="shared" si="114"/>
@@ -33086,7 +33101,7 @@
       <c r="F504" s="41"/>
       <c r="G504" s="39"/>
       <c r="H504" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I504" s="41"/>
       <c r="J504" s="41">
@@ -33094,7 +33109,7 @@
         <v>26.244520000000001</v>
       </c>
       <c r="K504" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L504" s="41">
         <f>M503</f>
@@ -33115,13 +33130,13 @@
       <c r="D505" s="22"/>
       <c r="E505" s="42"/>
       <c r="F505" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G505" s="23"/>
-      <c r="H505" s="106">
+      <c r="H505" s="92">
         <v>1.2</v>
       </c>
-      <c r="I505" s="106"/>
+      <c r="I505" s="92"/>
       <c r="J505" s="42"/>
       <c r="K505" s="42"/>
       <c r="L505" s="42"/>
@@ -33131,24 +33146,24 @@
       <c r="P505" s="24"/>
     </row>
     <row r="506" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B506" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C506" s="92"/>
-      <c r="D506" s="92"/>
-      <c r="E506" s="92"/>
-      <c r="F506" s="92"/>
-      <c r="G506" s="92"/>
+      <c r="B506" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C506" s="93"/>
+      <c r="D506" s="93"/>
+      <c r="E506" s="93"/>
+      <c r="F506" s="93"/>
+      <c r="G506" s="93"/>
       <c r="H506" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I506" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J506" s="92"/>
-      <c r="K506" s="92"/>
-      <c r="L506" s="92"/>
-      <c r="M506" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I506" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J506" s="93"/>
+      <c r="K506" s="93"/>
+      <c r="L506" s="93"/>
+      <c r="M506" s="93"/>
       <c r="N506" s="25"/>
       <c r="O506" s="25"/>
       <c r="P506" s="28">
@@ -33164,7 +33179,7 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="D507" s="47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E507" s="41"/>
       <c r="F507" s="41"/>
@@ -33644,7 +33659,7 @@
         <v>1.986</v>
       </c>
       <c r="D519" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E519" s="39">
         <f t="shared" si="120"/>
@@ -33921,7 +33936,7 @@
       <c r="F533" s="41"/>
       <c r="G533" s="39"/>
       <c r="H533" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I533" s="41"/>
       <c r="J533" s="41">
@@ -33929,7 +33944,7 @@
         <v>31.213500000000003</v>
       </c>
       <c r="K533" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L533" s="41">
         <f>M532</f>
@@ -33950,13 +33965,13 @@
       <c r="D535" s="22"/>
       <c r="E535" s="42"/>
       <c r="F535" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G535" s="23"/>
-      <c r="H535" s="106">
+      <c r="H535" s="92">
         <v>1.3</v>
       </c>
-      <c r="I535" s="106"/>
+      <c r="I535" s="92"/>
       <c r="J535" s="42"/>
       <c r="K535" s="42"/>
       <c r="L535" s="42"/>
@@ -33966,24 +33981,24 @@
       <c r="P535" s="24"/>
     </row>
     <row r="536" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B536" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C536" s="92"/>
-      <c r="D536" s="92"/>
-      <c r="E536" s="92"/>
-      <c r="F536" s="92"/>
-      <c r="G536" s="92"/>
+      <c r="B536" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C536" s="93"/>
+      <c r="D536" s="93"/>
+      <c r="E536" s="93"/>
+      <c r="F536" s="93"/>
+      <c r="G536" s="93"/>
       <c r="H536" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I536" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J536" s="92"/>
-      <c r="K536" s="92"/>
-      <c r="L536" s="92"/>
-      <c r="M536" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I536" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J536" s="93"/>
+      <c r="K536" s="93"/>
+      <c r="L536" s="93"/>
+      <c r="M536" s="93"/>
       <c r="N536" s="25"/>
       <c r="O536" s="25"/>
       <c r="P536" s="28">
@@ -33999,7 +34014,7 @@
         <v>2.1110000000000002</v>
       </c>
       <c r="D537" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E537" s="41"/>
       <c r="F537" s="41"/>
@@ -34463,7 +34478,7 @@
         <v>2.222</v>
       </c>
       <c r="D549" s="47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E549" s="39">
         <f t="shared" si="126"/>
@@ -34808,7 +34823,7 @@
       <c r="F563" s="41"/>
       <c r="G563" s="39"/>
       <c r="H563" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I563" s="41"/>
       <c r="J563" s="41">
@@ -34816,7 +34831,7 @@
         <v>50.9985</v>
       </c>
       <c r="K563" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L563" s="41">
         <f>M562</f>
@@ -34837,13 +34852,13 @@
       <c r="D565" s="22"/>
       <c r="E565" s="42"/>
       <c r="F565" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G565" s="23"/>
-      <c r="H565" s="109">
+      <c r="H565" s="94">
         <v>1.4</v>
       </c>
-      <c r="I565" s="109"/>
+      <c r="I565" s="94"/>
       <c r="J565" s="42"/>
       <c r="K565" s="42"/>
       <c r="L565" s="42"/>
@@ -34853,24 +34868,24 @@
       <c r="P565" s="24"/>
     </row>
     <row r="566" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B566" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C566" s="92"/>
-      <c r="D566" s="92"/>
-      <c r="E566" s="92"/>
-      <c r="F566" s="92"/>
-      <c r="G566" s="92"/>
+      <c r="B566" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C566" s="93"/>
+      <c r="D566" s="93"/>
+      <c r="E566" s="93"/>
+      <c r="F566" s="93"/>
+      <c r="G566" s="93"/>
       <c r="H566" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I566" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J566" s="92"/>
-      <c r="K566" s="92"/>
-      <c r="L566" s="92"/>
-      <c r="M566" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I566" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J566" s="93"/>
+      <c r="K566" s="93"/>
+      <c r="L566" s="93"/>
+      <c r="M566" s="93"/>
       <c r="N566" s="25"/>
       <c r="O566" s="25"/>
       <c r="P566" s="28">
@@ -34886,7 +34901,7 @@
         <v>1.944</v>
       </c>
       <c r="D567" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E567" s="41"/>
       <c r="F567" s="41"/>
@@ -35318,7 +35333,7 @@
         <v>1.847</v>
       </c>
       <c r="D578" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E578" s="39">
         <f t="shared" si="132"/>
@@ -35695,7 +35710,7 @@
       <c r="F593" s="41"/>
       <c r="G593" s="39"/>
       <c r="H593" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I593" s="46"/>
       <c r="J593" s="47">
@@ -35703,7 +35718,7 @@
         <v>32.045000000000002</v>
       </c>
       <c r="K593" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L593" s="41">
         <f>M592</f>
@@ -35724,13 +35739,13 @@
       <c r="D595" s="22"/>
       <c r="E595" s="42"/>
       <c r="F595" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G595" s="23"/>
-      <c r="H595" s="106">
+      <c r="H595" s="92">
         <v>1.5</v>
       </c>
-      <c r="I595" s="106"/>
+      <c r="I595" s="92"/>
       <c r="J595" s="42"/>
       <c r="K595" s="42"/>
       <c r="L595" s="42"/>
@@ -35740,24 +35755,24 @@
       <c r="P595" s="24"/>
     </row>
     <row r="596" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B596" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C596" s="92"/>
-      <c r="D596" s="92"/>
-      <c r="E596" s="92"/>
-      <c r="F596" s="92"/>
-      <c r="G596" s="92"/>
+      <c r="B596" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C596" s="93"/>
+      <c r="D596" s="93"/>
+      <c r="E596" s="93"/>
+      <c r="F596" s="93"/>
+      <c r="G596" s="93"/>
       <c r="H596" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I596" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J596" s="92"/>
-      <c r="K596" s="92"/>
-      <c r="L596" s="92"/>
-      <c r="M596" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I596" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J596" s="93"/>
+      <c r="K596" s="93"/>
+      <c r="L596" s="93"/>
+      <c r="M596" s="93"/>
       <c r="N596" s="25"/>
       <c r="O596" s="25"/>
       <c r="P596" s="28">
@@ -35773,7 +35788,7 @@
         <v>1.8360000000000001</v>
       </c>
       <c r="D597" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E597" s="41"/>
       <c r="F597" s="41"/>
@@ -36195,7 +36210,7 @@
         <v>2.6160000000000001</v>
       </c>
       <c r="D609" s="47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E609" s="39">
         <f t="shared" si="138"/>
@@ -36630,7 +36645,7 @@
       <c r="F623" s="41"/>
       <c r="G623" s="39"/>
       <c r="H623" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I623" s="41"/>
       <c r="J623" s="41">
@@ -36638,7 +36653,7 @@
         <v>56.094500000000004</v>
       </c>
       <c r="K623" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L623" s="41">
         <f>M622</f>
@@ -36659,13 +36674,13 @@
       <c r="D625" s="22"/>
       <c r="E625" s="42"/>
       <c r="F625" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G625" s="23"/>
-      <c r="H625" s="106">
+      <c r="H625" s="92">
         <v>1.6</v>
       </c>
-      <c r="I625" s="106"/>
+      <c r="I625" s="92"/>
       <c r="J625" s="42"/>
       <c r="K625" s="42"/>
       <c r="L625" s="42"/>
@@ -36675,24 +36690,24 @@
       <c r="P625" s="24"/>
     </row>
     <row r="626" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B626" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C626" s="92"/>
-      <c r="D626" s="92"/>
-      <c r="E626" s="92"/>
-      <c r="F626" s="92"/>
-      <c r="G626" s="92"/>
+      <c r="B626" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C626" s="93"/>
+      <c r="D626" s="93"/>
+      <c r="E626" s="93"/>
+      <c r="F626" s="93"/>
+      <c r="G626" s="93"/>
       <c r="H626" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I626" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J626" s="92"/>
-      <c r="K626" s="92"/>
-      <c r="L626" s="92"/>
-      <c r="M626" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I626" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J626" s="93"/>
+      <c r="K626" s="93"/>
+      <c r="L626" s="93"/>
+      <c r="M626" s="93"/>
       <c r="N626" s="25"/>
       <c r="O626" s="25"/>
       <c r="P626" s="28">
@@ -36708,7 +36723,7 @@
         <v>1.73</v>
       </c>
       <c r="D627" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E627" s="41"/>
       <c r="F627" s="41"/>
@@ -37161,7 +37176,7 @@
         <v>2.718</v>
       </c>
       <c r="D640" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E640" s="39">
         <f t="shared" si="144"/>
@@ -37677,7 +37692,7 @@
       <c r="F659" s="41"/>
       <c r="G659" s="39"/>
       <c r="H659" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I659" s="41"/>
       <c r="J659" s="41">
@@ -37685,7 +37700,7 @@
         <v>64.882500000000007</v>
       </c>
       <c r="K659" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L659" s="41">
         <f>M658</f>
@@ -37706,13 +37721,13 @@
       <c r="D661" s="22"/>
       <c r="E661" s="42"/>
       <c r="F661" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G661" s="23"/>
-      <c r="H661" s="106">
+      <c r="H661" s="92">
         <v>1.7</v>
       </c>
-      <c r="I661" s="106"/>
+      <c r="I661" s="92"/>
       <c r="J661" s="42"/>
       <c r="K661" s="42"/>
       <c r="L661" s="42"/>
@@ -37722,24 +37737,24 @@
       <c r="P661" s="24"/>
     </row>
     <row r="662" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B662" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C662" s="92"/>
-      <c r="D662" s="92"/>
-      <c r="E662" s="92"/>
-      <c r="F662" s="92"/>
-      <c r="G662" s="92"/>
+      <c r="B662" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C662" s="93"/>
+      <c r="D662" s="93"/>
+      <c r="E662" s="93"/>
+      <c r="F662" s="93"/>
+      <c r="G662" s="93"/>
       <c r="H662" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I662" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J662" s="92"/>
-      <c r="K662" s="92"/>
-      <c r="L662" s="92"/>
-      <c r="M662" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I662" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J662" s="93"/>
+      <c r="K662" s="93"/>
+      <c r="L662" s="93"/>
+      <c r="M662" s="93"/>
       <c r="N662" s="25"/>
       <c r="O662" s="25"/>
       <c r="P662" s="28">
@@ -37755,7 +37770,7 @@
         <v>2.7029999999999998</v>
       </c>
       <c r="D663" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E663" s="41"/>
       <c r="F663" s="41"/>
@@ -38203,7 +38218,7 @@
         <v>2.6629999999999998</v>
       </c>
       <c r="D674" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E674" s="39">
         <f t="shared" si="150"/>
@@ -38487,7 +38502,7 @@
       <c r="F689" s="41"/>
       <c r="G689" s="39"/>
       <c r="H689" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I689" s="41"/>
       <c r="J689" s="41">
@@ -38495,7 +38510,7 @@
         <v>49.385000000000005</v>
       </c>
       <c r="K689" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L689" s="41">
         <f>M688</f>
@@ -38516,13 +38531,13 @@
       <c r="D691" s="22"/>
       <c r="E691" s="42"/>
       <c r="F691" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G691" s="23"/>
-      <c r="H691" s="106">
+      <c r="H691" s="92">
         <v>1.75</v>
       </c>
-      <c r="I691" s="106"/>
+      <c r="I691" s="92"/>
       <c r="J691" s="42"/>
       <c r="K691" s="42"/>
       <c r="L691" s="42"/>
@@ -38532,24 +38547,24 @@
       <c r="P691" s="24"/>
     </row>
     <row r="692" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B692" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C692" s="92"/>
-      <c r="D692" s="92"/>
-      <c r="E692" s="92"/>
-      <c r="F692" s="92"/>
-      <c r="G692" s="92"/>
+      <c r="B692" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="C692" s="93"/>
+      <c r="D692" s="93"/>
+      <c r="E692" s="93"/>
+      <c r="F692" s="93"/>
+      <c r="G692" s="93"/>
       <c r="H692" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I692" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="J692" s="92"/>
-      <c r="K692" s="92"/>
-      <c r="L692" s="92"/>
-      <c r="M692" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I692" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="J692" s="93"/>
+      <c r="K692" s="93"/>
+      <c r="L692" s="93"/>
+      <c r="M692" s="93"/>
       <c r="N692" s="25"/>
       <c r="O692" s="25"/>
       <c r="P692" s="28">
@@ -38565,7 +38580,7 @@
         <v>2.6920000000000002</v>
       </c>
       <c r="D693" s="39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E693" s="41"/>
       <c r="F693" s="41"/>
@@ -39226,7 +39241,7 @@
         <v>1.9279999999999999</v>
       </c>
       <c r="D709" s="34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E709" s="39">
         <f t="shared" si="156"/>
@@ -39519,7 +39534,7 @@
       <c r="F719" s="41"/>
       <c r="G719" s="39"/>
       <c r="H719" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I719" s="41"/>
       <c r="J719" s="41">
@@ -39527,7 +39542,7 @@
         <v>71.170500000000004</v>
       </c>
       <c r="K719" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L719" s="41">
         <f>M718</f>
@@ -39563,83 +39578,83 @@
     </row>
     <row r="721" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="722" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B722" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="C722" s="94"/>
-      <c r="D722" s="94"/>
-      <c r="E722" s="94"/>
-      <c r="F722" s="94"/>
-      <c r="G722" s="94"/>
-      <c r="H722" s="94"/>
-      <c r="I722" s="95"/>
+      <c r="B722" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C722" s="101"/>
+      <c r="D722" s="101"/>
+      <c r="E722" s="101"/>
+      <c r="F722" s="101"/>
+      <c r="G722" s="101"/>
+      <c r="H722" s="101"/>
+      <c r="I722" s="102"/>
       <c r="J722" s="84"/>
       <c r="K722" s="84"/>
       <c r="L722" s="84"/>
       <c r="M722" s="84"/>
     </row>
     <row r="723" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B723" s="96"/>
-      <c r="C723" s="97"/>
-      <c r="D723" s="97"/>
-      <c r="E723" s="97"/>
-      <c r="F723" s="97"/>
-      <c r="G723" s="97"/>
-      <c r="H723" s="97"/>
-      <c r="I723" s="98"/>
+      <c r="B723" s="103"/>
+      <c r="C723" s="104"/>
+      <c r="D723" s="104"/>
+      <c r="E723" s="104"/>
+      <c r="F723" s="104"/>
+      <c r="G723" s="104"/>
+      <c r="H723" s="104"/>
+      <c r="I723" s="105"/>
       <c r="J723" s="84"/>
       <c r="K723" s="84"/>
       <c r="L723" s="84"/>
       <c r="M723" s="84"/>
     </row>
     <row r="724" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B724" s="96"/>
-      <c r="C724" s="97"/>
-      <c r="D724" s="97"/>
-      <c r="E724" s="97"/>
-      <c r="F724" s="97"/>
-      <c r="G724" s="97"/>
-      <c r="H724" s="97"/>
-      <c r="I724" s="98"/>
+      <c r="B724" s="103"/>
+      <c r="C724" s="104"/>
+      <c r="D724" s="104"/>
+      <c r="E724" s="104"/>
+      <c r="F724" s="104"/>
+      <c r="G724" s="104"/>
+      <c r="H724" s="104"/>
+      <c r="I724" s="105"/>
       <c r="J724" s="84"/>
       <c r="K724" s="84"/>
       <c r="L724" s="84"/>
       <c r="M724" s="84"/>
     </row>
     <row r="725" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B725" s="99"/>
-      <c r="C725" s="100"/>
-      <c r="D725" s="100"/>
-      <c r="E725" s="100"/>
-      <c r="F725" s="100"/>
-      <c r="G725" s="100"/>
-      <c r="H725" s="100"/>
-      <c r="I725" s="101"/>
+      <c r="B725" s="106"/>
+      <c r="C725" s="107"/>
+      <c r="D725" s="107"/>
+      <c r="E725" s="107"/>
+      <c r="F725" s="107"/>
+      <c r="G725" s="107"/>
+      <c r="H725" s="107"/>
+      <c r="I725" s="108"/>
       <c r="J725" s="84"/>
       <c r="K725" s="84"/>
       <c r="L725" s="84"/>
       <c r="M725" s="84"/>
     </row>
     <row r="726" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B726" s="102" t="s">
+      <c r="B726" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="C726" s="109"/>
+      <c r="D726" s="109"/>
+      <c r="E726" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="F726" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="C726" s="102"/>
-      <c r="D726" s="102"/>
-      <c r="E726" s="85" t="s">
+      <c r="G726" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="F726" s="85" t="s">
+      <c r="H726" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="G726" s="85" t="s">
+      <c r="I726" s="85" t="s">
         <v>140</v>
-      </c>
-      <c r="H726" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="I726" s="85" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="727" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.2">
@@ -40618,14 +40633,14 @@
       <c r="D752" s="91"/>
       <c r="E752" s="88"/>
       <c r="F752" s="86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G752" s="89">
         <f>SUM(G727:G751)</f>
         <v>1749.9999999999998</v>
       </c>
       <c r="H752" s="86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I752" s="90">
         <f>SUM(I728:I751)</f>
@@ -53624,37 +53639,69 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="B749:D749"/>
-    <mergeCell ref="B750:D750"/>
-    <mergeCell ref="B751:D751"/>
-    <mergeCell ref="H595:I595"/>
-    <mergeCell ref="B596:G596"/>
-    <mergeCell ref="I596:M596"/>
-    <mergeCell ref="H625:I625"/>
-    <mergeCell ref="B626:G626"/>
-    <mergeCell ref="I626:M626"/>
-    <mergeCell ref="H661:I661"/>
-    <mergeCell ref="B662:G662"/>
-    <mergeCell ref="I662:M662"/>
-    <mergeCell ref="H505:I505"/>
-    <mergeCell ref="B506:G506"/>
-    <mergeCell ref="I506:M506"/>
-    <mergeCell ref="H535:I535"/>
-    <mergeCell ref="B536:G536"/>
-    <mergeCell ref="I536:M536"/>
-    <mergeCell ref="H565:I565"/>
-    <mergeCell ref="B566:G566"/>
-    <mergeCell ref="I566:M566"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="B752:D752"/>
+    <mergeCell ref="B753:D753"/>
+    <mergeCell ref="B754:D754"/>
+    <mergeCell ref="B755:D755"/>
+    <mergeCell ref="B756:D756"/>
+    <mergeCell ref="B757:D757"/>
+    <mergeCell ref="B758:D758"/>
+    <mergeCell ref="B734:D734"/>
+    <mergeCell ref="B735:D735"/>
+    <mergeCell ref="B736:D736"/>
+    <mergeCell ref="B737:D737"/>
+    <mergeCell ref="B738:D738"/>
+    <mergeCell ref="B739:D739"/>
+    <mergeCell ref="B740:D740"/>
+    <mergeCell ref="B741:D741"/>
+    <mergeCell ref="B742:D742"/>
+    <mergeCell ref="B743:D743"/>
+    <mergeCell ref="B744:D744"/>
+    <mergeCell ref="B745:D745"/>
+    <mergeCell ref="B746:D746"/>
+    <mergeCell ref="B747:D747"/>
+    <mergeCell ref="B748:D748"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="I124:M124"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="I150:M150"/>
+    <mergeCell ref="H691:I691"/>
+    <mergeCell ref="B448:G448"/>
+    <mergeCell ref="I448:M448"/>
+    <mergeCell ref="H476:I476"/>
+    <mergeCell ref="B477:G477"/>
+    <mergeCell ref="I477:M477"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="B230:G230"/>
+    <mergeCell ref="I230:M230"/>
+    <mergeCell ref="H254:I254"/>
+    <mergeCell ref="H255:I255"/>
+    <mergeCell ref="B256:G256"/>
+    <mergeCell ref="I256:M256"/>
+    <mergeCell ref="H280:I280"/>
+    <mergeCell ref="H282:I282"/>
+    <mergeCell ref="B283:G283"/>
+    <mergeCell ref="I283:M283"/>
+    <mergeCell ref="H307:I307"/>
+    <mergeCell ref="H309:I309"/>
+    <mergeCell ref="B310:G310"/>
+    <mergeCell ref="H390:I390"/>
+    <mergeCell ref="H392:I392"/>
+    <mergeCell ref="B393:G393"/>
+    <mergeCell ref="I393:M393"/>
+    <mergeCell ref="H337:I337"/>
+    <mergeCell ref="H339:I339"/>
+    <mergeCell ref="B340:G340"/>
+    <mergeCell ref="I340:M340"/>
+    <mergeCell ref="H364:I364"/>
+    <mergeCell ref="H365:I365"/>
+    <mergeCell ref="B366:G366"/>
+    <mergeCell ref="I366:M366"/>
     <mergeCell ref="H417:I417"/>
     <mergeCell ref="H418:I418"/>
     <mergeCell ref="B419:G419"/>
@@ -53679,47 +53726,37 @@
     <mergeCell ref="I202:M202"/>
     <mergeCell ref="H226:I226"/>
     <mergeCell ref="I310:M310"/>
-    <mergeCell ref="B283:G283"/>
-    <mergeCell ref="I283:M283"/>
-    <mergeCell ref="H307:I307"/>
-    <mergeCell ref="H309:I309"/>
-    <mergeCell ref="B310:G310"/>
-    <mergeCell ref="H390:I390"/>
-    <mergeCell ref="H392:I392"/>
-    <mergeCell ref="B393:G393"/>
-    <mergeCell ref="I393:M393"/>
-    <mergeCell ref="H337:I337"/>
-    <mergeCell ref="H339:I339"/>
-    <mergeCell ref="B340:G340"/>
-    <mergeCell ref="I340:M340"/>
-    <mergeCell ref="H364:I364"/>
-    <mergeCell ref="H365:I365"/>
-    <mergeCell ref="B366:G366"/>
-    <mergeCell ref="I366:M366"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="I124:M124"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="I150:M150"/>
-    <mergeCell ref="H691:I691"/>
-    <mergeCell ref="B448:G448"/>
-    <mergeCell ref="I448:M448"/>
-    <mergeCell ref="H476:I476"/>
-    <mergeCell ref="B477:G477"/>
-    <mergeCell ref="I477:M477"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="B230:G230"/>
-    <mergeCell ref="I230:M230"/>
-    <mergeCell ref="H254:I254"/>
-    <mergeCell ref="H255:I255"/>
-    <mergeCell ref="B256:G256"/>
-    <mergeCell ref="I256:M256"/>
-    <mergeCell ref="H280:I280"/>
-    <mergeCell ref="H282:I282"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="H505:I505"/>
+    <mergeCell ref="B506:G506"/>
+    <mergeCell ref="I506:M506"/>
+    <mergeCell ref="H535:I535"/>
+    <mergeCell ref="B536:G536"/>
+    <mergeCell ref="I536:M536"/>
+    <mergeCell ref="H565:I565"/>
+    <mergeCell ref="B566:G566"/>
+    <mergeCell ref="I566:M566"/>
+    <mergeCell ref="B749:D749"/>
+    <mergeCell ref="B750:D750"/>
+    <mergeCell ref="B751:D751"/>
+    <mergeCell ref="H595:I595"/>
+    <mergeCell ref="B596:G596"/>
+    <mergeCell ref="I596:M596"/>
+    <mergeCell ref="H625:I625"/>
+    <mergeCell ref="B626:G626"/>
+    <mergeCell ref="I626:M626"/>
+    <mergeCell ref="H661:I661"/>
+    <mergeCell ref="B662:G662"/>
+    <mergeCell ref="I662:M662"/>
     <mergeCell ref="B692:G692"/>
     <mergeCell ref="I692:M692"/>
     <mergeCell ref="B722:I725"/>
@@ -53731,28 +53768,6 @@
     <mergeCell ref="B731:D731"/>
     <mergeCell ref="B732:D732"/>
     <mergeCell ref="B733:D733"/>
-    <mergeCell ref="B752:D752"/>
-    <mergeCell ref="B753:D753"/>
-    <mergeCell ref="B754:D754"/>
-    <mergeCell ref="B755:D755"/>
-    <mergeCell ref="B756:D756"/>
-    <mergeCell ref="B757:D757"/>
-    <mergeCell ref="B758:D758"/>
-    <mergeCell ref="B734:D734"/>
-    <mergeCell ref="B735:D735"/>
-    <mergeCell ref="B736:D736"/>
-    <mergeCell ref="B737:D737"/>
-    <mergeCell ref="B738:D738"/>
-    <mergeCell ref="B739:D739"/>
-    <mergeCell ref="B740:D740"/>
-    <mergeCell ref="B741:D741"/>
-    <mergeCell ref="B742:D742"/>
-    <mergeCell ref="B743:D743"/>
-    <mergeCell ref="B744:D744"/>
-    <mergeCell ref="B745:D745"/>
-    <mergeCell ref="B746:D746"/>
-    <mergeCell ref="B747:D747"/>
-    <mergeCell ref="B748:D748"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -53762,41 +53777,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -53809,7 +53845,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53857,7 +53893,7 @@
         <v>18</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>19</v>
@@ -53866,7 +53902,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -53884,10 +53920,10 @@
         <v>25</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H2" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I2" s="3">
         <v>-0.38800000000000001</v>
@@ -53904,7 +53940,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -53922,10 +53958,10 @@
         <v>25</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H3" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I3" s="3">
         <v>-0.38800000000000001</v>
@@ -53942,7 +53978,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="3">
         <v>200</v>
@@ -53960,10 +53996,10 @@
         <v>25</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H4" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I4" s="3">
         <v>-0.38800000000000001</v>
@@ -53980,7 +54016,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" s="3">
         <v>300</v>
@@ -53998,10 +54034,10 @@
         <v>25</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H5" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I5" s="3">
         <v>-0.38800000000000001</v>
@@ -54018,7 +54054,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3">
         <v>355</v>
@@ -54036,10 +54072,10 @@
         <v>25</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H6" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I6" s="3">
         <v>-0.38800000000000001</v>
@@ -54056,7 +54092,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3">
         <v>360</v>
@@ -54074,10 +54110,10 @@
         <v>25</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H7" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I7" s="3">
         <v>-0.38800000000000001</v>
@@ -54094,7 +54130,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="3">
         <v>400</v>
@@ -54112,10 +54148,10 @@
         <v>25</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H8" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I8" s="3">
         <v>-0.38800000000000001</v>
@@ -54132,7 +54168,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" s="35">
         <v>500</v>
@@ -54150,10 +54186,10 @@
         <v>25</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H9" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I9" s="3">
         <v>-0.38800000000000001</v>
@@ -54170,7 +54206,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B10" s="35">
         <v>575</v>
@@ -54188,10 +54224,10 @@
         <v>25</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H10" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I10" s="3">
         <v>-0.38800000000000001</v>
@@ -54208,7 +54244,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" s="35">
         <v>580</v>
@@ -54226,10 +54262,10 @@
         <v>25</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H11" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I11" s="3">
         <v>-0.38800000000000001</v>
@@ -54246,7 +54282,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="35">
         <v>600</v>
@@ -54264,10 +54300,10 @@
         <v>25</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H12" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I12" s="3">
         <v>-0.38800000000000001</v>
@@ -54284,7 +54320,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="35">
         <v>700</v>
@@ -54302,10 +54338,10 @@
         <v>25</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H13" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I13" s="3">
         <v>-0.38800000000000001</v>
@@ -54322,7 +54358,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="38">
         <v>800</v>
@@ -54340,10 +54376,10 @@
         <v>25</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H14" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I14" s="3">
         <v>-0.38800000000000001</v>
@@ -54360,7 +54396,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" s="38">
         <v>900</v>
@@ -54378,10 +54414,10 @@
         <v>25</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H15" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I15" s="3">
         <v>-0.38800000000000001</v>
@@ -54398,7 +54434,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B16" s="2">
         <v>1000</v>
@@ -54416,10 +54452,10 @@
         <v>25</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H16" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I16" s="3">
         <v>-0.38800000000000001</v>
@@ -54436,7 +54472,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2">
         <v>1028</v>
@@ -54454,10 +54490,10 @@
         <v>25</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H17" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I17" s="3">
         <v>-0.38800000000000001</v>
@@ -54474,7 +54510,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2">
         <v>1043</v>
@@ -54492,10 +54528,10 @@
         <v>25</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H18" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I18" s="3">
         <v>-0.38800000000000001</v>
@@ -54512,7 +54548,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2">
         <v>1100</v>
@@ -54530,10 +54566,10 @@
         <v>25</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H19" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I19" s="3">
         <v>-0.38800000000000001</v>
@@ -54550,7 +54586,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2">
         <v>1200</v>
@@ -54568,10 +54604,10 @@
         <v>25</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H20" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I20" s="3">
         <v>-0.38800000000000001</v>
@@ -54588,7 +54624,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2">
         <v>1300</v>
@@ -54606,10 +54642,10 @@
         <v>25</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H21" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I21" s="3">
         <v>-0.38800000000000001</v>
@@ -54626,7 +54662,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B22" s="2">
         <v>1400</v>
@@ -54644,10 +54680,10 @@
         <v>25</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H22" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I22" s="3">
         <v>-0.38800000000000001</v>
@@ -54664,7 +54700,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2">
         <v>1500</v>
@@ -54682,10 +54718,10 @@
         <v>25</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H23" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I23" s="3">
         <v>-0.38800000000000001</v>
@@ -54702,7 +54738,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="45">
         <v>1600</v>
@@ -54720,10 +54756,10 @@
         <v>25</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H24" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I24" s="3">
         <v>-0.38800000000000001</v>
@@ -54740,7 +54776,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" s="45">
         <v>1700</v>
@@ -54758,10 +54794,10 @@
         <v>25</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H25" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I25" s="3">
         <v>-0.38800000000000001</v>
@@ -54778,7 +54814,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="45">
         <v>1750</v>
@@ -54796,10 +54832,10 @@
         <v>25</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H26" s="3">
-        <v>1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="I26" s="3">
         <v>-0.38800000000000001</v>
@@ -55062,7 +55098,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55088,7 +55124,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>12</v>
@@ -55105,7 +55141,7 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B2" s="6">
         <v>-0.49</v>
@@ -55119,11 +55155,11 @@
       <c r="E2" s="7">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>112</v>
+      <c r="F2" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>26</v>
@@ -55152,18 +55188,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -55171,7 +55207,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -55179,7 +55215,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -55187,7 +55223,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -55195,15 +55231,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -55211,7 +55247,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -55219,7 +55255,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -55227,7 +55263,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -55235,7 +55271,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -55243,7 +55279,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55251,7 +55287,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -55259,7 +55295,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -55267,7 +55303,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -55275,7 +55311,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -55283,7 +55319,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55291,7 +55327,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55299,7 +55335,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55307,7 +55343,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55315,7 +55351,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55323,7 +55359,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -55331,7 +55367,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -55339,7 +55375,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -55365,82 +55401,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -55477,18 +55513,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -55496,7 +55532,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -55504,7 +55540,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -55512,7 +55548,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -55520,7 +55556,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -55528,7 +55564,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -55536,7 +55572,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -55544,7 +55580,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -55552,10 +55588,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -55563,7 +55599,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -55571,7 +55607,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -55579,7 +55615,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -55587,7 +55623,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -55595,31 +55631,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -55627,7 +55663,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -55635,7 +55671,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -55643,15 +55679,15 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -55659,7 +55695,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -55667,7 +55703,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -55675,7 +55711,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -55683,7 +55719,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -55691,7 +55727,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -55699,7 +55735,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
